--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -20,11 +20,11 @@
     <definedName name="environmentalsample">'cv_sample'!$W$1:$W$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="596">
   <si>
     <t>alias</t>
   </si>
@@ -451,6 +451,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -550,6 +562,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -667,6 +697,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -674,6 +707,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2324,10 +2360,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2368,10 +2404,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2434,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2418,7 +2454,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2435,7 +2471,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2452,7 +2488,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2469,7 +2505,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2486,7 +2522,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2503,7 +2539,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2520,7 +2556,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2537,7 +2573,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2554,7 +2590,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2568,7 +2604,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2582,7 +2618,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2596,7 +2632,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2610,7 +2646,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2620,8 +2656,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2631,8 +2670,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2642,8 +2684,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2653,8 +2698,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2665,7 +2713,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2676,7 +2724,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2687,7 +2735,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2698,7 +2746,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2709,7 +2757,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2720,7 +2768,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2731,7 +2779,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2742,7 +2790,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2753,7 +2801,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2764,7 +2812,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2775,7 +2823,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2786,7 +2834,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2797,7 +2845,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2808,7 +2856,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2816,7 +2864,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2824,7 +2872,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2832,7 +2880,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2840,7 +2888,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2848,7 +2896,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2856,7 +2904,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2864,7 +2912,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2872,7 +2920,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2880,7 +2928,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2888,176 +2936,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3082,27 +3170,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3125,122 +3213,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3267,150 +3355,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -3436,1443 +3524,1443 @@
   <sheetData>
     <row r="1" spans="14:23">
       <c r="N1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="W1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="14:23">
       <c r="N2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="W2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="14:23">
       <c r="N3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="14:23">
       <c r="N4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="14:23">
       <c r="N5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="14:23">
       <c r="N6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="14:23">
       <c r="N7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="14:23">
       <c r="N8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="14:23">
       <c r="N9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="14:23">
       <c r="N10" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="14:23">
       <c r="N11" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="14:23">
       <c r="N12" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="14:23">
       <c r="N13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="14:23">
       <c r="N14" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="14:23">
       <c r="N15" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="14:23">
       <c r="N16" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -880,8 +880,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1754,15 +1753,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1774,8 +1771,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1817,8 +1813,7 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>Further Details</t>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -100,7 +100,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$W$1:$W$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="597">
   <si>
     <t>alias</t>
   </si>
@@ -829,16 +829,22 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>Size Fraction Lower Threshold</t>
-  </si>
-  <si>
-    <t>(Optional) Sample_protocol_size-fraction_lower-threshold_(µm) indicates the lower size threshold. materials smaller than the size threshold are excluded from the sample. example: 0.22 µm</t>
-  </si>
-  <si>
-    <t>Size Fraction Upper Threshold</t>
-  </si>
-  <si>
-    <t>(Optional) Sample_protocol_size-fraction_upper-threshold_(µm) indicates the upper size threshold. materials larger than the size threshold are excluded from the sample.example: 1.6 µm</t>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>size-fraction lower threshold</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
+    <t>size-fraction upper threshold</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
   </si>
   <si>
     <t>target gene</t>
@@ -853,973 +859,970 @@
     <t>(Mandatory) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>(Optional) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
+  </si>
+  <si>
+    <t>collected_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of persons or institute who collected the specimen</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>environmental_sample</t>
+  </si>
+  <si>
+    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
+  </si>
+  <si>
+    <t>Further Details</t>
+  </si>
+  <si>
+    <t>(Optional) Reference details related to a sample in form of an uri.</t>
+  </si>
+  <si>
     <t>pcr primers</t>
   </si>
   <si>
     <t>(Mandatory) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>(Optional) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
-  </si>
-  <si>
-    <t>collected_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of persons or institute who collected the specimen</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>sample collection device or method</t>
-  </si>
-  <si>
-    <t>(Optional) The method or deviced employed for collecting the sample</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>environmental_sample</t>
-  </si>
-  <si>
-    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
-  </si>
-  <si>
-    <t>Further Details</t>
-  </si>
-  <si>
-    <t>(Optional) Reference details related to a sample in form of an uri.</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3383,40 +3386,40 @@
         <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
@@ -3460,40 +3463,40 @@
         <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +3504,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>environmentalsample</formula1>
     </dataValidation>
   </dataValidations>
@@ -3511,94 +3514,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="N1:W287"/>
+  <dimension ref="N1:U288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="14:23">
+    <row r="1" spans="14:21">
       <c r="N1" t="s">
         <v>283</v>
       </c>
-      <c r="W1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="2" spans="14:23">
+      <c r="U1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="14:21">
       <c r="N2" t="s">
         <v>284</v>
       </c>
-      <c r="W2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="14:23">
+      <c r="U2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="14:21">
       <c r="N3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="14:23">
+    <row r="4" spans="14:21">
       <c r="N4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="14:23">
+    <row r="5" spans="14:21">
       <c r="N5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="14:23">
+    <row r="6" spans="14:21">
       <c r="N6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="14:23">
+    <row r="7" spans="14:21">
       <c r="N7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="14:23">
+    <row r="8" spans="14:21">
       <c r="N8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="14:23">
+    <row r="9" spans="14:21">
       <c r="N9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="14:23">
+    <row r="10" spans="14:21">
       <c r="N10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="14:23">
+    <row r="11" spans="14:21">
       <c r="N11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="14:23">
+    <row r="12" spans="14:21">
       <c r="N12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="14:23">
+    <row r="13" spans="14:21">
       <c r="N13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="14:23">
+    <row r="14" spans="14:21">
       <c r="N14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="14:23">
+    <row r="15" spans="14:21">
       <c r="N15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="14:23">
+    <row r="16" spans="14:21">
       <c r="N16" t="s">
         <v>298</v>
       </c>
@@ -4956,6 +4959,11 @@
     <row r="287" spans="14:14">
       <c r="N287" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="14:14">
+      <c r="N288" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -1075,10 +1075,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="598">
   <si>
     <t>alias</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3353,150 +3356,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3522,1448 +3525,1448 @@
   <sheetData>
     <row r="1" spans="14:21">
       <c r="N1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="14:21">
       <c r="N2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="14:21">
       <c r="N3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="14:21">
       <c r="N4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="14:21">
       <c r="N5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="14:21">
       <c r="N6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="14:21">
       <c r="N7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="14:21">
       <c r="N8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="14:21">
       <c r="N9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="14:21">
       <c r="N10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="14:21">
       <c r="N11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="14:21">
       <c r="N12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="14:21">
       <c r="N13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="14:21">
       <c r="N14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="14:21">
       <c r="N15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="14:21">
       <c r="N16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -112,7 +112,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -130,7 +130,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$U$1:$U$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="599">
   <si>
     <t>alias</t>
   </si>
@@ -886,6 +886,54 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>environmental_sample</t>
+  </si>
+  <si>
+    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1714,6 +1762,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1754,54 +1805,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>environmental_sample</t>
-  </si>
-  <si>
-    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
   </si>
   <si>
     <t>salinity</t>
@@ -3389,40 +3392,40 @@
         <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>290</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>580</v>
+        <v>292</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>294</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>298</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
@@ -3466,49 +3469,49 @@
         <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>291</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>581</v>
+        <v>293</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>295</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
+      <formula1>environmentalsample</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
-      <formula1>environmentalsample</formula1>
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3517,1456 +3520,1461 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="N1:U288"/>
+  <dimension ref="T1:U289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="14:21">
-      <c r="N1" t="s">
-        <v>284</v>
+    <row r="1" spans="20:21">
+      <c r="T1" t="s">
+        <v>296</v>
       </c>
       <c r="U1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="20:21">
+      <c r="T2" t="s">
+        <v>297</v>
+      </c>
+      <c r="U2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="20:21">
+      <c r="U3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="20:21">
+      <c r="U4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="20:21">
+      <c r="U5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="20:21">
+      <c r="U6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="20:21">
+      <c r="U7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="20:21">
+      <c r="U8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="20:21">
+      <c r="U9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="20:21">
+      <c r="U10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="20:21">
+      <c r="U11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="20:21">
+      <c r="U12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="20:21">
+      <c r="U13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="20:21">
+      <c r="U14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="20:21">
+      <c r="U15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="20:21">
+      <c r="U16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="21:21">
+      <c r="U17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="21:21">
+      <c r="U18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="21:21">
+      <c r="U19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="21:21">
+      <c r="U20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="U21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="21:21">
+      <c r="U22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="21:21">
+      <c r="U23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="21:21">
+      <c r="U24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="21:21">
+      <c r="U25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="21:21">
+      <c r="U26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="21:21">
+      <c r="U27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="21:21">
+      <c r="U28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="21:21">
+      <c r="U29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="21:21">
+      <c r="U30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="21:21">
+      <c r="U31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="21:21">
+      <c r="U32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21">
+      <c r="U33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="21:21">
+      <c r="U34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="21:21">
+      <c r="U35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="21:21">
+      <c r="U36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="21:21">
+      <c r="U37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="21:21">
+      <c r="U38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="21:21">
+      <c r="U39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="21:21">
+      <c r="U40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="21:21">
+      <c r="U41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="21:21">
+      <c r="U42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="21:21">
+      <c r="U43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="21:21">
+      <c r="U44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="21:21">
+      <c r="U45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="21:21">
+      <c r="U46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="21:21">
+      <c r="U47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="21:21">
+      <c r="U48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="21:21">
+      <c r="U49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="21:21">
+      <c r="U50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="21:21">
+      <c r="U51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="21:21">
+      <c r="U52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="21:21">
+      <c r="U53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="21:21">
+      <c r="U54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="21:21">
+      <c r="U55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="21:21">
+      <c r="U56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="21:21">
+      <c r="U57" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="21:21">
+      <c r="U58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="21:21">
+      <c r="U59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="21:21">
+      <c r="U60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="21:21">
+      <c r="U61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="21:21">
+      <c r="U62" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="21:21">
+      <c r="U63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="21:21">
+      <c r="U64" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="21:21">
+      <c r="U65" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="21:21">
+      <c r="U66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="21:21">
+      <c r="U67" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="21:21">
+      <c r="U68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="21:21">
+      <c r="U69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="21:21">
+      <c r="U70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="21:21">
+      <c r="U71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="21:21">
+      <c r="U72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="21:21">
+      <c r="U73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="21:21">
+      <c r="U74" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="21:21">
+      <c r="U75" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="21:21">
+      <c r="U76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="21:21">
+      <c r="U77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="21:21">
+      <c r="U78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="21:21">
+      <c r="U79" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="21:21">
+      <c r="U80" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="21:21">
+      <c r="U81" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="21:21">
+      <c r="U82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="21:21">
+      <c r="U83" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="21:21">
+      <c r="U84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="21:21">
+      <c r="U85" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="21:21">
+      <c r="U86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="21:21">
+      <c r="U87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="21:21">
+      <c r="U88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="21:21">
+      <c r="U89" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="21:21">
+      <c r="U90" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="21:21">
+      <c r="U91" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="21:21">
+      <c r="U92" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="21:21">
+      <c r="U93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="21:21">
+      <c r="U94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="21:21">
+      <c r="U95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="21:21">
+      <c r="U96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="21:21">
+      <c r="U97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="21:21">
+      <c r="U98" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="21:21">
+      <c r="U99" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="21:21">
+      <c r="U100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="21:21">
+      <c r="U101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="21:21">
+      <c r="U102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="21:21">
+      <c r="U103" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="21:21">
+      <c r="U104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="21:21">
+      <c r="U105" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="21:21">
+      <c r="U106" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="21:21">
+      <c r="U107" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="21:21">
+      <c r="U108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="21:21">
+      <c r="U109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="21:21">
+      <c r="U110" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="21:21">
+      <c r="U111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="21:21">
+      <c r="U112" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="21:21">
+      <c r="U113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="21:21">
+      <c r="U114" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="115" spans="21:21">
+      <c r="U115" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="116" spans="21:21">
+      <c r="U116" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="117" spans="21:21">
+      <c r="U117" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="118" spans="21:21">
+      <c r="U118" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="21:21">
+      <c r="U119" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="21:21">
+      <c r="U120" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="21:21">
+      <c r="U121" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="122" spans="21:21">
+      <c r="U122" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="21:21">
+      <c r="U123" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="21:21">
+      <c r="U124" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="21:21">
+      <c r="U125" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126" spans="21:21">
+      <c r="U126" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="21:21">
+      <c r="U127" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="21:21">
+      <c r="U128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" spans="21:21">
+      <c r="U129" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="21:21">
+      <c r="U130" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="131" spans="21:21">
+      <c r="U131" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="21:21">
+      <c r="U132" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="21:21">
+      <c r="U133" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="21:21">
+      <c r="U134" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" spans="21:21">
+      <c r="U135" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="21:21">
+      <c r="U136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="21:21">
+      <c r="U137" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="21:21">
+      <c r="U138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="21:21">
+      <c r="U139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="21:21">
+      <c r="U140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="21:21">
+      <c r="U141" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="21:21">
+      <c r="U142" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="21:21">
+      <c r="U143" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="21:21">
+      <c r="U144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="21:21">
+      <c r="U145" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="146" spans="21:21">
+      <c r="U146" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="21:21">
+      <c r="U147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="21:21">
+      <c r="U148" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="149" spans="21:21">
+      <c r="U149" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="150" spans="21:21">
+      <c r="U150" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="21:21">
+      <c r="U151" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="21:21">
+      <c r="U152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="21:21">
+      <c r="U153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="21:21">
+      <c r="U154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="21:21">
+      <c r="U155" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="21:21">
+      <c r="U156" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="21:21">
+      <c r="U157" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="21:21">
+      <c r="U158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="21:21">
+      <c r="U159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="21:21">
+      <c r="U160" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="21:21">
+      <c r="U161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="21:21">
+      <c r="U162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="21:21">
+      <c r="U163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="21:21">
+      <c r="U164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="21:21">
+      <c r="U165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="21:21">
+      <c r="U166" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="167" spans="21:21">
+      <c r="U167" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="21:21">
+      <c r="U168" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="169" spans="21:21">
+      <c r="U169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="21:21">
+      <c r="U170" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="171" spans="21:21">
+      <c r="U171" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="172" spans="21:21">
+      <c r="U172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="21:21">
+      <c r="U173" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="174" spans="21:21">
+      <c r="U174" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="175" spans="21:21">
+      <c r="U175" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="21:21">
+      <c r="U176" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="21:21">
+      <c r="U177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="21:21">
+      <c r="U178" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="21:21">
+      <c r="U179" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="180" spans="21:21">
+      <c r="U180" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="21:21">
+      <c r="U181" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="182" spans="21:21">
+      <c r="U182" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="183" spans="21:21">
+      <c r="U183" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="184" spans="21:21">
+      <c r="U184" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="21:21">
+      <c r="U185" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="186" spans="21:21">
+      <c r="U186" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="187" spans="21:21">
+      <c r="U187" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188" spans="21:21">
+      <c r="U188" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="189" spans="21:21">
+      <c r="U189" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="21:21">
+      <c r="U190" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" spans="21:21">
+      <c r="U191" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="192" spans="21:21">
+      <c r="U192" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="193" spans="21:21">
+      <c r="U193" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="194" spans="21:21">
+      <c r="U194" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="195" spans="21:21">
+      <c r="U195" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="196" spans="21:21">
+      <c r="U196" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="197" spans="21:21">
+      <c r="U197" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="198" spans="21:21">
+      <c r="U198" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="199" spans="21:21">
+      <c r="U199" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="200" spans="21:21">
+      <c r="U200" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="201" spans="21:21">
+      <c r="U201" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="21:21">
+      <c r="U202" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="203" spans="21:21">
+      <c r="U203" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="204" spans="21:21">
+      <c r="U204" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="205" spans="21:21">
+      <c r="U205" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="206" spans="21:21">
+      <c r="U206" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="207" spans="21:21">
+      <c r="U207" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="208" spans="21:21">
+      <c r="U208" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="209" spans="21:21">
+      <c r="U209" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="210" spans="21:21">
+      <c r="U210" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="211" spans="21:21">
+      <c r="U211" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="212" spans="21:21">
+      <c r="U212" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="213" spans="21:21">
+      <c r="U213" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="214" spans="21:21">
+      <c r="U214" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="215" spans="21:21">
+      <c r="U215" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="216" spans="21:21">
+      <c r="U216" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="21:21">
+      <c r="U217" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="218" spans="21:21">
+      <c r="U218" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="219" spans="21:21">
+      <c r="U219" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="220" spans="21:21">
+      <c r="U220" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="221" spans="21:21">
+      <c r="U221" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="222" spans="21:21">
+      <c r="U222" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="223" spans="21:21">
+      <c r="U223" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="224" spans="21:21">
+      <c r="U224" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="225" spans="21:21">
+      <c r="U225" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="226" spans="21:21">
+      <c r="U226" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="227" spans="21:21">
+      <c r="U227" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="228" spans="21:21">
+      <c r="U228" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="229" spans="21:21">
+      <c r="U229" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="21:21">
+      <c r="U230" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="21:21">
+      <c r="U231" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="232" spans="21:21">
+      <c r="U232" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="233" spans="21:21">
+      <c r="U233" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="234" spans="21:21">
+      <c r="U234" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="235" spans="21:21">
+      <c r="U235" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="21:21">
+      <c r="U236" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="237" spans="21:21">
+      <c r="U237" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="238" spans="21:21">
+      <c r="U238" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="21:21">
+      <c r="U239" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="240" spans="21:21">
+      <c r="U240" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="21:21">
+      <c r="U241" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="21:21">
+      <c r="U242" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="21:21">
+      <c r="U243" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="21:21">
+      <c r="U244" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="245" spans="21:21">
+      <c r="U245" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="246" spans="21:21">
+      <c r="U246" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="247" spans="21:21">
+      <c r="U247" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="248" spans="21:21">
+      <c r="U248" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="249" spans="21:21">
+      <c r="U249" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="250" spans="21:21">
+      <c r="U250" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="251" spans="21:21">
+      <c r="U251" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="252" spans="21:21">
+      <c r="U252" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="253" spans="21:21">
+      <c r="U253" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="254" spans="21:21">
+      <c r="U254" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="255" spans="21:21">
+      <c r="U255" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="21:21">
+      <c r="U256" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="257" spans="21:21">
+      <c r="U257" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="258" spans="21:21">
+      <c r="U258" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="259" spans="21:21">
+      <c r="U259" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="260" spans="21:21">
+      <c r="U260" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="261" spans="21:21">
+      <c r="U261" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="262" spans="21:21">
+      <c r="U262" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="263" spans="21:21">
+      <c r="U263" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="264" spans="21:21">
+      <c r="U264" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="265" spans="21:21">
+      <c r="U265" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="266" spans="21:21">
+      <c r="U266" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="267" spans="21:21">
+      <c r="U267" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="268" spans="21:21">
+      <c r="U268" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="269" spans="21:21">
+      <c r="U269" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="270" spans="21:21">
+      <c r="U270" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="271" spans="21:21">
+      <c r="U271" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="272" spans="21:21">
+      <c r="U272" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="273" spans="21:21">
+      <c r="U273" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="274" spans="21:21">
+      <c r="U274" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="275" spans="21:21">
+      <c r="U275" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="21:21">
+      <c r="U276" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="277" spans="21:21">
+      <c r="U277" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="278" spans="21:21">
+      <c r="U278" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="279" spans="21:21">
+      <c r="U279" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="280" spans="21:21">
+      <c r="U280" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="281" spans="21:21">
+      <c r="U281" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="282" spans="21:21">
+      <c r="U282" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="283" spans="21:21">
+      <c r="U283" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="284" spans="21:21">
+      <c r="U284" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="285" spans="21:21">
+      <c r="U285" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="286" spans="21:21">
+      <c r="U286" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="287" spans="21:21">
+      <c r="U287" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="14:21">
-      <c r="N2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" t="s">
+    <row r="288" spans="21:21">
+      <c r="U288" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="14:21">
-      <c r="N3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="14:21">
-      <c r="N4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="14:21">
-      <c r="N5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="14:21">
-      <c r="N6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="14:21">
-      <c r="N7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="14:21">
-      <c r="N8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="14:21">
-      <c r="N9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="14:21">
-      <c r="N10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="14:21">
-      <c r="N11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="14:21">
-      <c r="N12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="14:21">
-      <c r="N13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="14:21">
-      <c r="N14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="14:21">
-      <c r="N15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="14:21">
-      <c r="N16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14">
-      <c r="N18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14">
-      <c r="N20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14">
-      <c r="N21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14">
-      <c r="N25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14">
-      <c r="N26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14">
-      <c r="N28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14">
-      <c r="N29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14">
-      <c r="N34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14">
-      <c r="N35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14">
-      <c r="N36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14">
-      <c r="N42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14">
-      <c r="N43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14">
-      <c r="N44" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14">
-      <c r="N45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="14:14">
-      <c r="N46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14">
-      <c r="N47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="14:14">
-      <c r="N48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="14:14">
-      <c r="N59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="14:14">
-      <c r="N60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14">
-      <c r="N72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="14:14">
-      <c r="N74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14">
-      <c r="N76" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14">
-      <c r="N77" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14">
-      <c r="N78" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14">
-      <c r="N79" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="14:14">
-      <c r="N80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="14:14">
-      <c r="N81" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="14:14">
-      <c r="N82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="14:14">
-      <c r="N83" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="84" spans="14:14">
-      <c r="N84" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" spans="14:14">
-      <c r="N85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="14:14">
-      <c r="N86" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="14:14">
-      <c r="N87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="14:14">
-      <c r="N88" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="14:14">
-      <c r="N89" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="90" spans="14:14">
-      <c r="N90" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="14:14">
-      <c r="N91" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="92" spans="14:14">
-      <c r="N92" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="14:14">
-      <c r="N93" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="94" spans="14:14">
-      <c r="N94" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" spans="14:14">
-      <c r="N95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="96" spans="14:14">
-      <c r="N96" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="14:14">
-      <c r="N97" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="14:14">
-      <c r="N98" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="99" spans="14:14">
-      <c r="N99" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="100" spans="14:14">
-      <c r="N100" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="14:14">
-      <c r="N101" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="14:14">
-      <c r="N102" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="103" spans="14:14">
-      <c r="N103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" spans="14:14">
-      <c r="N104" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="105" spans="14:14">
-      <c r="N105" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="14:14">
-      <c r="N106" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="14:14">
-      <c r="N107" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="14:14">
-      <c r="N108" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="109" spans="14:14">
-      <c r="N109" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="110" spans="14:14">
-      <c r="N110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="14:14">
-      <c r="N111" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="14:14">
-      <c r="N112" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="113" spans="14:14">
-      <c r="N113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="14:14">
-      <c r="N114" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="115" spans="14:14">
-      <c r="N115" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="116" spans="14:14">
-      <c r="N116" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="117" spans="14:14">
-      <c r="N117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="14:14">
-      <c r="N118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="14:14">
-      <c r="N119" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="14:14">
-      <c r="N120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="14:14">
-      <c r="N121" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="122" spans="14:14">
-      <c r="N122" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" spans="14:14">
-      <c r="N123" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="124" spans="14:14">
-      <c r="N124" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="14:14">
-      <c r="N125" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="126" spans="14:14">
-      <c r="N126" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="14:14">
-      <c r="N127" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="128" spans="14:14">
-      <c r="N128" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="14:14">
-      <c r="N129" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="130" spans="14:14">
-      <c r="N130" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="14:14">
-      <c r="N131" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="132" spans="14:14">
-      <c r="N132" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="14:14">
-      <c r="N133" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="14:14">
-      <c r="N134" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="135" spans="14:14">
-      <c r="N135" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="136" spans="14:14">
-      <c r="N136" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="137" spans="14:14">
-      <c r="N137" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="14:14">
-      <c r="N138" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="14:14">
-      <c r="N139" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="140" spans="14:14">
-      <c r="N140" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="141" spans="14:14">
-      <c r="N141" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="142" spans="14:14">
-      <c r="N142" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="143" spans="14:14">
-      <c r="N143" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="144" spans="14:14">
-      <c r="N144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="14:14">
-      <c r="N145" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="14:14">
-      <c r="N146" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="147" spans="14:14">
-      <c r="N147" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="148" spans="14:14">
-      <c r="N148" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="149" spans="14:14">
-      <c r="N149" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="150" spans="14:14">
-      <c r="N150" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="14:14">
-      <c r="N151" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="14:14">
-      <c r="N152" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="153" spans="14:14">
-      <c r="N153" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="14:14">
-      <c r="N154" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="155" spans="14:14">
-      <c r="N155" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="14:14">
-      <c r="N156" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="14:14">
-      <c r="N157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="14:14">
-      <c r="N158" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="14:14">
-      <c r="N159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="14:14">
-      <c r="N160" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="161" spans="14:14">
-      <c r="N161" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="162" spans="14:14">
-      <c r="N162" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="163" spans="14:14">
-      <c r="N163" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="164" spans="14:14">
-      <c r="N164" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="165" spans="14:14">
-      <c r="N165" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="14:14">
-      <c r="N166" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="167" spans="14:14">
-      <c r="N167" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="14:14">
-      <c r="N168" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="169" spans="14:14">
-      <c r="N169" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="14:14">
-      <c r="N170" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="171" spans="14:14">
-      <c r="N171" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="172" spans="14:14">
-      <c r="N172" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="173" spans="14:14">
-      <c r="N173" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="174" spans="14:14">
-      <c r="N174" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="175" spans="14:14">
-      <c r="N175" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="176" spans="14:14">
-      <c r="N176" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="177" spans="14:14">
-      <c r="N177" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="178" spans="14:14">
-      <c r="N178" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="179" spans="14:14">
-      <c r="N179" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="180" spans="14:14">
-      <c r="N180" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="181" spans="14:14">
-      <c r="N181" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="182" spans="14:14">
-      <c r="N182" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="14:14">
-      <c r="N183" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="184" spans="14:14">
-      <c r="N184" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="185" spans="14:14">
-      <c r="N185" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="14:14">
-      <c r="N186" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="187" spans="14:14">
-      <c r="N187" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="14:14">
-      <c r="N188" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="189" spans="14:14">
-      <c r="N189" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="190" spans="14:14">
-      <c r="N190" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="191" spans="14:14">
-      <c r="N191" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="192" spans="14:14">
-      <c r="N192" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="193" spans="14:14">
-      <c r="N193" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="194" spans="14:14">
-      <c r="N194" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="195" spans="14:14">
-      <c r="N195" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="196" spans="14:14">
-      <c r="N196" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="197" spans="14:14">
-      <c r="N197" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="198" spans="14:14">
-      <c r="N198" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="199" spans="14:14">
-      <c r="N199" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="200" spans="14:14">
-      <c r="N200" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="201" spans="14:14">
-      <c r="N201" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="202" spans="14:14">
-      <c r="N202" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="203" spans="14:14">
-      <c r="N203" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="204" spans="14:14">
-      <c r="N204" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="205" spans="14:14">
-      <c r="N205" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="206" spans="14:14">
-      <c r="N206" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="207" spans="14:14">
-      <c r="N207" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="208" spans="14:14">
-      <c r="N208" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="209" spans="14:14">
-      <c r="N209" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="210" spans="14:14">
-      <c r="N210" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="211" spans="14:14">
-      <c r="N211" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="212" spans="14:14">
-      <c r="N212" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="213" spans="14:14">
-      <c r="N213" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" spans="14:14">
-      <c r="N214" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="215" spans="14:14">
-      <c r="N215" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="216" spans="14:14">
-      <c r="N216" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="217" spans="14:14">
-      <c r="N217" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" spans="14:14">
-      <c r="N218" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="14:14">
-      <c r="N219" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="220" spans="14:14">
-      <c r="N220" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="221" spans="14:14">
-      <c r="N221" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="222" spans="14:14">
-      <c r="N222" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="223" spans="14:14">
-      <c r="N223" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="224" spans="14:14">
-      <c r="N224" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="225" spans="14:14">
-      <c r="N225" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="226" spans="14:14">
-      <c r="N226" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="227" spans="14:14">
-      <c r="N227" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="228" spans="14:14">
-      <c r="N228" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="229" spans="14:14">
-      <c r="N229" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="230" spans="14:14">
-      <c r="N230" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="231" spans="14:14">
-      <c r="N231" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="232" spans="14:14">
-      <c r="N232" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="233" spans="14:14">
-      <c r="N233" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="234" spans="14:14">
-      <c r="N234" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="235" spans="14:14">
-      <c r="N235" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="236" spans="14:14">
-      <c r="N236" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="237" spans="14:14">
-      <c r="N237" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="238" spans="14:14">
-      <c r="N238" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="239" spans="14:14">
-      <c r="N239" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="240" spans="14:14">
-      <c r="N240" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="241" spans="14:14">
-      <c r="N241" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="242" spans="14:14">
-      <c r="N242" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="243" spans="14:14">
-      <c r="N243" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="244" spans="14:14">
-      <c r="N244" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="245" spans="14:14">
-      <c r="N245" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="246" spans="14:14">
-      <c r="N246" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="247" spans="14:14">
-      <c r="N247" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="248" spans="14:14">
-      <c r="N248" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="249" spans="14:14">
-      <c r="N249" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="250" spans="14:14">
-      <c r="N250" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="251" spans="14:14">
-      <c r="N251" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="252" spans="14:14">
-      <c r="N252" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="253" spans="14:14">
-      <c r="N253" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="254" spans="14:14">
-      <c r="N254" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="255" spans="14:14">
-      <c r="N255" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="256" spans="14:14">
-      <c r="N256" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="257" spans="14:14">
-      <c r="N257" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="258" spans="14:14">
-      <c r="N258" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="259" spans="14:14">
-      <c r="N259" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="260" spans="14:14">
-      <c r="N260" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="261" spans="14:14">
-      <c r="N261" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="262" spans="14:14">
-      <c r="N262" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="263" spans="14:14">
-      <c r="N263" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="264" spans="14:14">
-      <c r="N264" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="265" spans="14:14">
-      <c r="N265" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="266" spans="14:14">
-      <c r="N266" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="267" spans="14:14">
-      <c r="N267" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="268" spans="14:14">
-      <c r="N268" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="269" spans="14:14">
-      <c r="N269" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="270" spans="14:14">
-      <c r="N270" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="271" spans="14:14">
-      <c r="N271" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="272" spans="14:14">
-      <c r="N272" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="273" spans="14:14">
-      <c r="N273" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="274" spans="14:14">
-      <c r="N274" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="275" spans="14:14">
-      <c r="N275" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="276" spans="14:14">
-      <c r="N276" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="277" spans="14:14">
-      <c r="N277" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="278" spans="14:14">
-      <c r="N278" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="279" spans="14:14">
-      <c r="N279" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="280" spans="14:14">
-      <c r="N280" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="281" spans="14:14">
-      <c r="N281" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="282" spans="14:14">
-      <c r="N282" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="283" spans="14:14">
-      <c r="N283" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="284" spans="14:14">
-      <c r="N284" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="285" spans="14:14">
-      <c r="N285" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="14:14">
-      <c r="N286" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="287" spans="14:14">
-      <c r="N287" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="288" spans="14:14">
-      <c r="N288" t="s">
-        <v>571</v>
+    <row r="289" spans="21:21">
+      <c r="U289" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="600">
   <si>
     <t>alias</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2367,7 +2370,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2411,7 +2414,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3150,6 +3153,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3174,27 +3182,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3217,122 +3225,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3359,150 +3367,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -3528,1453 +3536,1453 @@
   <sheetData>
     <row r="1" spans="20:21">
       <c r="T1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="20:21">
       <c r="T2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="20:21">
       <c r="U3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="20:21">
       <c r="U4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="20:21">
       <c r="U5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="20:21">
       <c r="U6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="20:21">
       <c r="U7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="20:21">
       <c r="U8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="20:21">
       <c r="U9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="20:21">
       <c r="U10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="20:21">
       <c r="U11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="20:21">
       <c r="U12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="20:21">
       <c r="U13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="20:21">
       <c r="U14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="20:21">
       <c r="U15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="20:21">
       <c r="U16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="21:21">
       <c r="U17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="21:21">
       <c r="U18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="21:21">
       <c r="U19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="21:21">
       <c r="U20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="U21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="21:21">
       <c r="U22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="21:21">
       <c r="U23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="21:21">
       <c r="U24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="21:21">
       <c r="U25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="21:21">
       <c r="U26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="21:21">
       <c r="U27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="21:21">
       <c r="U28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="21:21">
       <c r="U29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="21:21">
       <c r="U30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="21:21">
       <c r="U31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="21:21">
       <c r="U32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="21:21">
       <c r="U33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="21:21">
       <c r="U34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="21:21">
       <c r="U35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="21:21">
       <c r="U36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="21:21">
       <c r="U37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="21:21">
       <c r="U38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="21:21">
       <c r="U39" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="21:21">
       <c r="U40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="21:21">
       <c r="U41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="21:21">
       <c r="U42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="21:21">
       <c r="U43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="21:21">
       <c r="U44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="21:21">
       <c r="U45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="21:21">
       <c r="U46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="21:21">
       <c r="U47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="21:21">
       <c r="U48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="21:21">
       <c r="U49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="21:21">
       <c r="U50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="21:21">
       <c r="U51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="21:21">
       <c r="U52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="21:21">
       <c r="U53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="21:21">
       <c r="U54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="21:21">
       <c r="U55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="21:21">
       <c r="U56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="21:21">
       <c r="U57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="21:21">
       <c r="U58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="21:21">
       <c r="U59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="21:21">
       <c r="U60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="21:21">
       <c r="U61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="21:21">
       <c r="U62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="21:21">
       <c r="U63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="21:21">
       <c r="U64" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="21:21">
       <c r="U65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="21:21">
       <c r="U66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="21:21">
       <c r="U67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="21:21">
       <c r="U68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="21:21">
       <c r="U69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="21:21">
       <c r="U70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="21:21">
       <c r="U71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="21:21">
       <c r="U72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="21:21">
       <c r="U73" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="21:21">
       <c r="U74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="21:21">
       <c r="U75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="21:21">
       <c r="U76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="21:21">
       <c r="U77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="21:21">
       <c r="U78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="21:21">
       <c r="U79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="21:21">
       <c r="U80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="21:21">
       <c r="U81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="21:21">
       <c r="U82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="21:21">
       <c r="U83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="21:21">
       <c r="U84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="21:21">
       <c r="U85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="21:21">
       <c r="U86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="21:21">
       <c r="U87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="21:21">
       <c r="U88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="21:21">
       <c r="U89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="21:21">
       <c r="U90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="21:21">
       <c r="U91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="21:21">
       <c r="U92" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="21:21">
       <c r="U93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="21:21">
       <c r="U94" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="21:21">
       <c r="U95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="21:21">
       <c r="U96" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="21:21">
       <c r="U97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="21:21">
       <c r="U98" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="21:21">
       <c r="U99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="21:21">
       <c r="U100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="21:21">
       <c r="U101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="21:21">
       <c r="U102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="21:21">
       <c r="U103" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="21:21">
       <c r="U104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="21:21">
       <c r="U105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="21:21">
       <c r="U106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="21:21">
       <c r="U107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="21:21">
       <c r="U108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="21:21">
       <c r="U109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="21:21">
       <c r="U110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="21:21">
       <c r="U111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="21:21">
       <c r="U112" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="21:21">
       <c r="U113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="21:21">
       <c r="U114" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="21:21">
       <c r="U115" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="21:21">
       <c r="U116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="21:21">
       <c r="U117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="21:21">
       <c r="U118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="21:21">
       <c r="U119" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="21:21">
       <c r="U120" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="21:21">
       <c r="U121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="21:21">
       <c r="U122" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="21:21">
       <c r="U123" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="21:21">
       <c r="U124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="21:21">
       <c r="U125" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="21:21">
       <c r="U126" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="21:21">
       <c r="U127" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="21:21">
       <c r="U128" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="21:21">
       <c r="U129" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="21:21">
       <c r="U130" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="21:21">
       <c r="U131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="21:21">
       <c r="U132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="21:21">
       <c r="U133" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="21:21">
       <c r="U134" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="21:21">
       <c r="U135" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="21:21">
       <c r="U136" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="21:21">
       <c r="U137" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="21:21">
       <c r="U138" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="21:21">
       <c r="U139" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="21:21">
       <c r="U140" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="21:21">
       <c r="U141" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="21:21">
       <c r="U142" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="21:21">
       <c r="U143" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="21:21">
       <c r="U144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="21:21">
       <c r="U145" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="21:21">
       <c r="U146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="21:21">
       <c r="U147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="21:21">
       <c r="U148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="21:21">
       <c r="U149" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="21:21">
       <c r="U150" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="21:21">
       <c r="U151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="21:21">
       <c r="U152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="21:21">
       <c r="U153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="21:21">
       <c r="U154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="21:21">
       <c r="U155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="21:21">
       <c r="U156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="21:21">
       <c r="U157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="21:21">
       <c r="U158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="21:21">
       <c r="U159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="21:21">
       <c r="U160" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="21:21">
       <c r="U161" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="21:21">
       <c r="U162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="21:21">
       <c r="U163" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="21:21">
       <c r="U164" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="21:21">
       <c r="U165" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="21:21">
       <c r="U166" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="21:21">
       <c r="U167" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="21:21">
       <c r="U168" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="21:21">
       <c r="U169" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="21:21">
       <c r="U170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="21:21">
       <c r="U171" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="21:21">
       <c r="U172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="21:21">
       <c r="U173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="21:21">
       <c r="U174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="21:21">
       <c r="U175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="21:21">
       <c r="U176" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="21:21">
       <c r="U177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="21:21">
       <c r="U178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="21:21">
       <c r="U179" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="21:21">
       <c r="U180" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="21:21">
       <c r="U181" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="21:21">
       <c r="U182" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="21:21">
       <c r="U183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="21:21">
       <c r="U184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="21:21">
       <c r="U185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="21:21">
       <c r="U186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="21:21">
       <c r="U187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="21:21">
       <c r="U188" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="21:21">
       <c r="U189" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="21:21">
       <c r="U190" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="21:21">
       <c r="U191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="21:21">
       <c r="U192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="21:21">
       <c r="U193" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="21:21">
       <c r="U194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="21:21">
       <c r="U195" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="21:21">
       <c r="U196" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="21:21">
       <c r="U197" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="21:21">
       <c r="U198" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="21:21">
       <c r="U199" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="21:21">
       <c r="U200" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="21:21">
       <c r="U201" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" spans="21:21">
       <c r="U202" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="21:21">
       <c r="U203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="21:21">
       <c r="U204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="21:21">
       <c r="U205" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="21:21">
       <c r="U206" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="21:21">
       <c r="U207" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" spans="21:21">
       <c r="U208" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="21:21">
       <c r="U209" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="21:21">
       <c r="U210" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="21:21">
       <c r="U211" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="21:21">
       <c r="U212" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" spans="21:21">
       <c r="U213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="214" spans="21:21">
       <c r="U214" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="215" spans="21:21">
       <c r="U215" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" spans="21:21">
       <c r="U216" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" spans="21:21">
       <c r="U217" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="21:21">
       <c r="U218" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="21:21">
       <c r="U219" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="21:21">
       <c r="U220" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" spans="21:21">
       <c r="U221" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="222" spans="21:21">
       <c r="U222" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="21:21">
       <c r="U223" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" spans="21:21">
       <c r="U224" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="21:21">
       <c r="U225" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="21:21">
       <c r="U226" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227" spans="21:21">
       <c r="U227" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" spans="21:21">
       <c r="U228" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" spans="21:21">
       <c r="U229" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="21:21">
       <c r="U230" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="21:21">
       <c r="U231" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" spans="21:21">
       <c r="U232" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="21:21">
       <c r="U233" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="21:21">
       <c r="U234" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="21:21">
       <c r="U235" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" spans="21:21">
       <c r="U236" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="21:21">
       <c r="U237" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" spans="21:21">
       <c r="U238" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="239" spans="21:21">
       <c r="U239" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" spans="21:21">
       <c r="U240" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="21:21">
       <c r="U241" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="21:21">
       <c r="U242" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" spans="21:21">
       <c r="U243" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="244" spans="21:21">
       <c r="U244" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="21:21">
       <c r="U245" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="21:21">
       <c r="U246" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="21:21">
       <c r="U247" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="21:21">
       <c r="U248" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="21:21">
       <c r="U249" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="21:21">
       <c r="U250" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="21:21">
       <c r="U251" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="21:21">
       <c r="U252" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="21:21">
       <c r="U253" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="21:21">
       <c r="U254" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="21:21">
       <c r="U255" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="21:21">
       <c r="U256" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="21:21">
       <c r="U257" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="258" spans="21:21">
       <c r="U258" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="21:21">
       <c r="U259" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="21:21">
       <c r="U260" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="261" spans="21:21">
       <c r="U261" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="21:21">
       <c r="U262" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="21:21">
       <c r="U263" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="21:21">
       <c r="U264" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="21:21">
       <c r="U265" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="21:21">
       <c r="U266" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="267" spans="21:21">
       <c r="U267" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="21:21">
       <c r="U268" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="21:21">
       <c r="U269" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270" spans="21:21">
       <c r="U270" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="21:21">
       <c r="U271" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="21:21">
       <c r="U272" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="273" spans="21:21">
       <c r="U273" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="21:21">
       <c r="U274" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="21:21">
       <c r="U275" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="276" spans="21:21">
       <c r="U276" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="21:21">
       <c r="U277" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="278" spans="21:21">
       <c r="U278" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="21:21">
       <c r="U279" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="21:21">
       <c r="U280" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="21:21">
       <c r="U281" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="21:21">
       <c r="U282" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="21:21">
       <c r="U283" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="21:21">
       <c r="U284" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="21:21">
       <c r="U285" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" spans="21:21">
       <c r="U286" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" spans="21:21">
       <c r="U287" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="21:21">
       <c r="U288" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="289" spans="21:21">
       <c r="U289" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="601">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2370,7 +2373,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2414,7 +2417,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2444,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3158,6 +3161,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3182,27 +3190,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3225,122 +3233,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3367,150 +3375,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -3536,1453 +3544,1453 @@
   <sheetData>
     <row r="1" spans="20:21">
       <c r="T1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="20:21">
       <c r="T2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="20:21">
       <c r="U3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="20:21">
       <c r="U4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="20:21">
       <c r="U5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="20:21">
       <c r="U6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="20:21">
       <c r="U7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="20:21">
       <c r="U8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="20:21">
       <c r="U9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="20:21">
       <c r="U10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="20:21">
       <c r="U11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="20:21">
       <c r="U12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="20:21">
       <c r="U13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="20:21">
       <c r="U14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="20:21">
       <c r="U15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="20:21">
       <c r="U16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="21:21">
       <c r="U17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="21:21">
       <c r="U18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="21:21">
       <c r="U19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="21:21">
       <c r="U20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="U21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="21:21">
       <c r="U22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="21:21">
       <c r="U23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="21:21">
       <c r="U24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="21:21">
       <c r="U25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="21:21">
       <c r="U26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="21:21">
       <c r="U27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="21:21">
       <c r="U28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="21:21">
       <c r="U29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="21:21">
       <c r="U30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="21:21">
       <c r="U31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="21:21">
       <c r="U32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="21:21">
       <c r="U33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="21:21">
       <c r="U34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="21:21">
       <c r="U35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="21:21">
       <c r="U36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="21:21">
       <c r="U37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="21:21">
       <c r="U38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="21:21">
       <c r="U39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="21:21">
       <c r="U40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="21:21">
       <c r="U41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="21:21">
       <c r="U42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="21:21">
       <c r="U43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="21:21">
       <c r="U44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="21:21">
       <c r="U45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="21:21">
       <c r="U46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="21:21">
       <c r="U47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="21:21">
       <c r="U48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="21:21">
       <c r="U49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="21:21">
       <c r="U50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="21:21">
       <c r="U51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="21:21">
       <c r="U52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="21:21">
       <c r="U53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="21:21">
       <c r="U54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="21:21">
       <c r="U55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="21:21">
       <c r="U56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="21:21">
       <c r="U57" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="21:21">
       <c r="U58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="21:21">
       <c r="U59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="21:21">
       <c r="U60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="21:21">
       <c r="U61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="21:21">
       <c r="U62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="21:21">
       <c r="U63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="21:21">
       <c r="U64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="21:21">
       <c r="U65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="21:21">
       <c r="U66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="21:21">
       <c r="U67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="21:21">
       <c r="U68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="21:21">
       <c r="U69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="21:21">
       <c r="U70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="21:21">
       <c r="U71" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="21:21">
       <c r="U72" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="21:21">
       <c r="U73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="21:21">
       <c r="U74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="21:21">
       <c r="U75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="21:21">
       <c r="U76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="21:21">
       <c r="U77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="21:21">
       <c r="U78" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="21:21">
       <c r="U79" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="21:21">
       <c r="U80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="21:21">
       <c r="U81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="21:21">
       <c r="U82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="21:21">
       <c r="U83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="21:21">
       <c r="U84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="21:21">
       <c r="U85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="21:21">
       <c r="U86" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="21:21">
       <c r="U87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="21:21">
       <c r="U88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="21:21">
       <c r="U89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="21:21">
       <c r="U90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="21:21">
       <c r="U91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="21:21">
       <c r="U92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="21:21">
       <c r="U93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="21:21">
       <c r="U94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="21:21">
       <c r="U95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="21:21">
       <c r="U96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="21:21">
       <c r="U97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="21:21">
       <c r="U98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="21:21">
       <c r="U99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="21:21">
       <c r="U100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="21:21">
       <c r="U101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="21:21">
       <c r="U102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="21:21">
       <c r="U103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="21:21">
       <c r="U104" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="21:21">
       <c r="U105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="21:21">
       <c r="U106" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="21:21">
       <c r="U107" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="21:21">
       <c r="U108" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="21:21">
       <c r="U109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="21:21">
       <c r="U110" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="21:21">
       <c r="U111" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="21:21">
       <c r="U112" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="21:21">
       <c r="U113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="21:21">
       <c r="U114" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="21:21">
       <c r="U115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="21:21">
       <c r="U116" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="21:21">
       <c r="U117" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="21:21">
       <c r="U118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="21:21">
       <c r="U119" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="21:21">
       <c r="U120" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="21:21">
       <c r="U121" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="21:21">
       <c r="U122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="21:21">
       <c r="U123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="21:21">
       <c r="U124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="21:21">
       <c r="U125" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="21:21">
       <c r="U126" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="21:21">
       <c r="U127" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="21:21">
       <c r="U128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="21:21">
       <c r="U129" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="21:21">
       <c r="U130" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="21:21">
       <c r="U131" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="21:21">
       <c r="U132" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="21:21">
       <c r="U133" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="21:21">
       <c r="U134" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="21:21">
       <c r="U135" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="21:21">
       <c r="U136" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" spans="21:21">
       <c r="U137" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="21:21">
       <c r="U138" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="21:21">
       <c r="U139" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="21:21">
       <c r="U140" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="21:21">
       <c r="U141" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="21:21">
       <c r="U142" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="21:21">
       <c r="U143" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="21:21">
       <c r="U144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="21:21">
       <c r="U145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="21:21">
       <c r="U146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="21:21">
       <c r="U147" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="21:21">
       <c r="U148" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="21:21">
       <c r="U149" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" spans="21:21">
       <c r="U150" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="21:21">
       <c r="U151" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="21:21">
       <c r="U152" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="21:21">
       <c r="U153" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="21:21">
       <c r="U154" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="21:21">
       <c r="U155" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" spans="21:21">
       <c r="U156" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="21:21">
       <c r="U157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" spans="21:21">
       <c r="U158" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="159" spans="21:21">
       <c r="U159" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="21:21">
       <c r="U160" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="21:21">
       <c r="U161" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="21:21">
       <c r="U162" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="21:21">
       <c r="U163" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" spans="21:21">
       <c r="U164" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="21:21">
       <c r="U165" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="21:21">
       <c r="U166" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="21:21">
       <c r="U167" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="21:21">
       <c r="U168" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="169" spans="21:21">
       <c r="U169" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" spans="21:21">
       <c r="U170" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="21:21">
       <c r="U171" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="21:21">
       <c r="U172" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="21:21">
       <c r="U173" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="21:21">
       <c r="U174" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="21:21">
       <c r="U175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="21:21">
       <c r="U176" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="21:21">
       <c r="U177" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="21:21">
       <c r="U178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="21:21">
       <c r="U179" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="21:21">
       <c r="U180" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="21:21">
       <c r="U181" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="21:21">
       <c r="U182" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="21:21">
       <c r="U183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="21:21">
       <c r="U184" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="21:21">
       <c r="U185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="21:21">
       <c r="U186" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="21:21">
       <c r="U187" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="21:21">
       <c r="U188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="21:21">
       <c r="U189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="21:21">
       <c r="U190" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="21:21">
       <c r="U191" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="21:21">
       <c r="U192" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="21:21">
       <c r="U193" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="21:21">
       <c r="U194" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="21:21">
       <c r="U195" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="21:21">
       <c r="U196" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="21:21">
       <c r="U197" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="21:21">
       <c r="U198" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="21:21">
       <c r="U199" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="21:21">
       <c r="U200" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="21:21">
       <c r="U201" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="21:21">
       <c r="U202" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="21:21">
       <c r="U203" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" spans="21:21">
       <c r="U204" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="21:21">
       <c r="U205" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" spans="21:21">
       <c r="U206" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="21:21">
       <c r="U207" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="21:21">
       <c r="U208" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="209" spans="21:21">
       <c r="U209" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="210" spans="21:21">
       <c r="U210" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" spans="21:21">
       <c r="U211" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="21:21">
       <c r="U212" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="213" spans="21:21">
       <c r="U213" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" spans="21:21">
       <c r="U214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="215" spans="21:21">
       <c r="U215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="216" spans="21:21">
       <c r="U216" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="21:21">
       <c r="U217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="21:21">
       <c r="U218" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" spans="21:21">
       <c r="U219" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" spans="21:21">
       <c r="U220" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="221" spans="21:21">
       <c r="U221" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="21:21">
       <c r="U222" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="21:21">
       <c r="U223" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="21:21">
       <c r="U224" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="21:21">
       <c r="U225" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" spans="21:21">
       <c r="U226" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227" spans="21:21">
       <c r="U227" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="228" spans="21:21">
       <c r="U228" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="21:21">
       <c r="U229" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" spans="21:21">
       <c r="U230" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="231" spans="21:21">
       <c r="U231" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="232" spans="21:21">
       <c r="U232" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="233" spans="21:21">
       <c r="U233" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234" spans="21:21">
       <c r="U234" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="235" spans="21:21">
       <c r="U235" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="236" spans="21:21">
       <c r="U236" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="237" spans="21:21">
       <c r="U237" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="238" spans="21:21">
       <c r="U238" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="239" spans="21:21">
       <c r="U239" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" spans="21:21">
       <c r="U240" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="241" spans="21:21">
       <c r="U241" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="242" spans="21:21">
       <c r="U242" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="243" spans="21:21">
       <c r="U243" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="244" spans="21:21">
       <c r="U244" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="245" spans="21:21">
       <c r="U245" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="21:21">
       <c r="U246" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="21:21">
       <c r="U247" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="21:21">
       <c r="U248" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="249" spans="21:21">
       <c r="U249" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="21:21">
       <c r="U250" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="251" spans="21:21">
       <c r="U251" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="252" spans="21:21">
       <c r="U252" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="21:21">
       <c r="U253" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="254" spans="21:21">
       <c r="U254" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="21:21">
       <c r="U255" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="21:21">
       <c r="U256" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="257" spans="21:21">
       <c r="U257" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="258" spans="21:21">
       <c r="U258" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="259" spans="21:21">
       <c r="U259" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="260" spans="21:21">
       <c r="U260" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="21:21">
       <c r="U261" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="21:21">
       <c r="U262" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="263" spans="21:21">
       <c r="U263" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="264" spans="21:21">
       <c r="U264" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="265" spans="21:21">
       <c r="U265" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="266" spans="21:21">
       <c r="U266" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="21:21">
       <c r="U267" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="268" spans="21:21">
       <c r="U268" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="269" spans="21:21">
       <c r="U269" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="21:21">
       <c r="U270" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="21:21">
       <c r="U271" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="272" spans="21:21">
       <c r="U272" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="21:21">
       <c r="U273" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="21:21">
       <c r="U274" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="275" spans="21:21">
       <c r="U275" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="21:21">
       <c r="U276" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="277" spans="21:21">
       <c r="U277" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="21:21">
       <c r="U278" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="21:21">
       <c r="U279" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="21:21">
       <c r="U280" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="21:21">
       <c r="U281" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="21:21">
       <c r="U282" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="21:21">
       <c r="U283" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="21:21">
       <c r="U284" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="21:21">
       <c r="U285" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="286" spans="21:21">
       <c r="U286" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="21:21">
       <c r="U287" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="21:21">
       <c r="U288" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="289" spans="21:21">
       <c r="U289" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="602">
   <si>
     <t>alias</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2373,7 +2376,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2417,7 +2420,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3166,6 +3169,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3190,27 +3198,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3233,122 +3241,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3375,150 +3383,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -3544,1453 +3552,1453 @@
   <sheetData>
     <row r="1" spans="20:21">
       <c r="T1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="20:21">
       <c r="T2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="20:21">
       <c r="U3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="20:21">
       <c r="U4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="20:21">
       <c r="U5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="20:21">
       <c r="U6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="20:21">
       <c r="U7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="20:21">
       <c r="U8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="20:21">
       <c r="U9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="20:21">
       <c r="U10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="20:21">
       <c r="U11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="20:21">
       <c r="U12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="20:21">
       <c r="U13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="20:21">
       <c r="U14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="20:21">
       <c r="U15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="20:21">
       <c r="U16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="21:21">
       <c r="U17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="21:21">
       <c r="U18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="21:21">
       <c r="U19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="21:21">
       <c r="U20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="U21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="21:21">
       <c r="U22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="21:21">
       <c r="U23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="21:21">
       <c r="U24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="21:21">
       <c r="U25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="21:21">
       <c r="U26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="21:21">
       <c r="U27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="21:21">
       <c r="U28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="21:21">
       <c r="U29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="21:21">
       <c r="U30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="21:21">
       <c r="U31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="21:21">
       <c r="U32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="21:21">
       <c r="U33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="21:21">
       <c r="U34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="21:21">
       <c r="U35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="21:21">
       <c r="U36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="21:21">
       <c r="U37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="21:21">
       <c r="U38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="21:21">
       <c r="U39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="21:21">
       <c r="U40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="21:21">
       <c r="U41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="21:21">
       <c r="U42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="21:21">
       <c r="U43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="21:21">
       <c r="U44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="21:21">
       <c r="U45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="21:21">
       <c r="U46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="21:21">
       <c r="U47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="21:21">
       <c r="U48" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="21:21">
       <c r="U49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="21:21">
       <c r="U50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="21:21">
       <c r="U51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="21:21">
       <c r="U52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="21:21">
       <c r="U53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="21:21">
       <c r="U54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="21:21">
       <c r="U55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="21:21">
       <c r="U56" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="21:21">
       <c r="U57" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="21:21">
       <c r="U58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="21:21">
       <c r="U59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="21:21">
       <c r="U60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="21:21">
       <c r="U61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="21:21">
       <c r="U62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="21:21">
       <c r="U63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="21:21">
       <c r="U64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="21:21">
       <c r="U65" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="21:21">
       <c r="U66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="21:21">
       <c r="U67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="21:21">
       <c r="U68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="21:21">
       <c r="U69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="21:21">
       <c r="U70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="21:21">
       <c r="U71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="21:21">
       <c r="U72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="21:21">
       <c r="U73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="21:21">
       <c r="U74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="21:21">
       <c r="U75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="21:21">
       <c r="U76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="21:21">
       <c r="U77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="21:21">
       <c r="U78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="21:21">
       <c r="U79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="21:21">
       <c r="U80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="21:21">
       <c r="U81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="21:21">
       <c r="U82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="21:21">
       <c r="U83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="21:21">
       <c r="U84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="21:21">
       <c r="U85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="21:21">
       <c r="U86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="21:21">
       <c r="U87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="21:21">
       <c r="U88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="21:21">
       <c r="U89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="21:21">
       <c r="U90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="21:21">
       <c r="U91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="21:21">
       <c r="U92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="21:21">
       <c r="U93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="21:21">
       <c r="U94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="21:21">
       <c r="U95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="21:21">
       <c r="U96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="21:21">
       <c r="U97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="21:21">
       <c r="U98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="21:21">
       <c r="U99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="21:21">
       <c r="U100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="21:21">
       <c r="U101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="21:21">
       <c r="U102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="21:21">
       <c r="U103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="21:21">
       <c r="U104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="21:21">
       <c r="U105" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="21:21">
       <c r="U106" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="21:21">
       <c r="U107" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="21:21">
       <c r="U108" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="21:21">
       <c r="U109" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="21:21">
       <c r="U110" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="21:21">
       <c r="U111" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="21:21">
       <c r="U112" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="21:21">
       <c r="U113" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="21:21">
       <c r="U114" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="21:21">
       <c r="U115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="21:21">
       <c r="U116" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="21:21">
       <c r="U117" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="21:21">
       <c r="U118" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="21:21">
       <c r="U119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="21:21">
       <c r="U120" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="21:21">
       <c r="U121" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="21:21">
       <c r="U122" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="21:21">
       <c r="U123" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="21:21">
       <c r="U124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="21:21">
       <c r="U125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="21:21">
       <c r="U126" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="21:21">
       <c r="U127" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="21:21">
       <c r="U128" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="21:21">
       <c r="U129" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="21:21">
       <c r="U130" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="21:21">
       <c r="U131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="21:21">
       <c r="U132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="21:21">
       <c r="U133" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="21:21">
       <c r="U134" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="21:21">
       <c r="U135" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="21:21">
       <c r="U136" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="21:21">
       <c r="U137" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="21:21">
       <c r="U138" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="21:21">
       <c r="U139" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="21:21">
       <c r="U140" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="21:21">
       <c r="U141" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="21:21">
       <c r="U142" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="21:21">
       <c r="U143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="21:21">
       <c r="U144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="21:21">
       <c r="U145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="21:21">
       <c r="U146" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="21:21">
       <c r="U147" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="21:21">
       <c r="U148" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="21:21">
       <c r="U149" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="21:21">
       <c r="U150" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="21:21">
       <c r="U151" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="21:21">
       <c r="U152" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="21:21">
       <c r="U153" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="21:21">
       <c r="U154" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="21:21">
       <c r="U155" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" spans="21:21">
       <c r="U156" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" spans="21:21">
       <c r="U157" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="21:21">
       <c r="U158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="21:21">
       <c r="U159" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="21:21">
       <c r="U160" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="21:21">
       <c r="U161" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="21:21">
       <c r="U162" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="21:21">
       <c r="U163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="21:21">
       <c r="U164" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="21:21">
       <c r="U165" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="21:21">
       <c r="U166" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="21:21">
       <c r="U167" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="21:21">
       <c r="U168" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="21:21">
       <c r="U169" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="21:21">
       <c r="U170" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="21:21">
       <c r="U171" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="21:21">
       <c r="U172" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="21:21">
       <c r="U173" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="21:21">
       <c r="U174" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="21:21">
       <c r="U175" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="21:21">
       <c r="U176" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="21:21">
       <c r="U177" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="21:21">
       <c r="U178" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="21:21">
       <c r="U179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="21:21">
       <c r="U180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" spans="21:21">
       <c r="U181" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="21:21">
       <c r="U182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="21:21">
       <c r="U183" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="21:21">
       <c r="U184" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="21:21">
       <c r="U185" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" spans="21:21">
       <c r="U186" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" spans="21:21">
       <c r="U187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="21:21">
       <c r="U188" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="21:21">
       <c r="U189" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="21:21">
       <c r="U190" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="21:21">
       <c r="U191" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="21:21">
       <c r="U192" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="21:21">
       <c r="U193" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="21:21">
       <c r="U194" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="21:21">
       <c r="U195" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" spans="21:21">
       <c r="U196" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="21:21">
       <c r="U197" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="21:21">
       <c r="U198" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="21:21">
       <c r="U199" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" spans="21:21">
       <c r="U200" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="21:21">
       <c r="U201" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="21:21">
       <c r="U202" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="21:21">
       <c r="U203" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="21:21">
       <c r="U204" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="21:21">
       <c r="U205" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="21:21">
       <c r="U206" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="21:21">
       <c r="U207" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="21:21">
       <c r="U208" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" spans="21:21">
       <c r="U209" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="210" spans="21:21">
       <c r="U210" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" spans="21:21">
       <c r="U211" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" spans="21:21">
       <c r="U212" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" spans="21:21">
       <c r="U213" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="214" spans="21:21">
       <c r="U214" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="21:21">
       <c r="U215" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="21:21">
       <c r="U216" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="217" spans="21:21">
       <c r="U217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="21:21">
       <c r="U218" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" spans="21:21">
       <c r="U219" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="21:21">
       <c r="U220" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" spans="21:21">
       <c r="U221" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="21:21">
       <c r="U222" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" spans="21:21">
       <c r="U223" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="21:21">
       <c r="U224" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" spans="21:21">
       <c r="U225" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" spans="21:21">
       <c r="U226" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="21:21">
       <c r="U227" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" spans="21:21">
       <c r="U228" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="21:21">
       <c r="U229" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" spans="21:21">
       <c r="U230" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" spans="21:21">
       <c r="U231" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" spans="21:21">
       <c r="U232" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="21:21">
       <c r="U233" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="21:21">
       <c r="U234" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="21:21">
       <c r="U235" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" spans="21:21">
       <c r="U236" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="237" spans="21:21">
       <c r="U237" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" spans="21:21">
       <c r="U238" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="21:21">
       <c r="U239" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" spans="21:21">
       <c r="U240" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="21:21">
       <c r="U241" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" spans="21:21">
       <c r="U242" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="21:21">
       <c r="U243" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="21:21">
       <c r="U244" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="245" spans="21:21">
       <c r="U245" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="21:21">
       <c r="U246" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="21:21">
       <c r="U247" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="248" spans="21:21">
       <c r="U248" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="21:21">
       <c r="U249" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="250" spans="21:21">
       <c r="U250" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="21:21">
       <c r="U251" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="21:21">
       <c r="U252" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="21:21">
       <c r="U253" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="21:21">
       <c r="U254" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="21:21">
       <c r="U255" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="21:21">
       <c r="U256" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="21:21">
       <c r="U257" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="21:21">
       <c r="U258" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="21:21">
       <c r="U259" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="21:21">
       <c r="U260" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="21:21">
       <c r="U261" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="21:21">
       <c r="U262" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="21:21">
       <c r="U263" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="21:21">
       <c r="U264" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="265" spans="21:21">
       <c r="U265" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="21:21">
       <c r="U266" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="267" spans="21:21">
       <c r="U267" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="21:21">
       <c r="U268" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="21:21">
       <c r="U269" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="21:21">
       <c r="U270" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="21:21">
       <c r="U271" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="21:21">
       <c r="U272" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="21:21">
       <c r="U273" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="21:21">
       <c r="U274" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="21:21">
       <c r="U275" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="21:21">
       <c r="U276" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="21:21">
       <c r="U277" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="21:21">
       <c r="U278" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="21:21">
       <c r="U279" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="21:21">
       <c r="U280" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="21:21">
       <c r="U281" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="21:21">
       <c r="U282" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="21:21">
       <c r="U283" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="21:21">
       <c r="U284" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="21:21">
       <c r="U285" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="286" spans="21:21">
       <c r="U286" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="287" spans="21:21">
       <c r="U287" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="21:21">
       <c r="U288" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="21:21">
       <c r="U289" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2376,7 +2379,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2420,7 +2423,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2450,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3174,6 +3177,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3198,27 +3206,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3241,122 +3249,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3383,150 +3391,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3552,1453 +3560,1453 @@
   <sheetData>
     <row r="1" spans="20:21">
       <c r="T1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="20:21">
       <c r="T2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="20:21">
       <c r="U3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="20:21">
       <c r="U4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="20:21">
       <c r="U5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="20:21">
       <c r="U6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="20:21">
       <c r="U7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="20:21">
       <c r="U8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="20:21">
       <c r="U9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="20:21">
       <c r="U10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="20:21">
       <c r="U11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="20:21">
       <c r="U12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="20:21">
       <c r="U13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="20:21">
       <c r="U14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="20:21">
       <c r="U15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="20:21">
       <c r="U16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="21:21">
       <c r="U17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="21:21">
       <c r="U18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="21:21">
       <c r="U19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="21:21">
       <c r="U20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="U21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="21:21">
       <c r="U22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="21:21">
       <c r="U23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="21:21">
       <c r="U24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="21:21">
       <c r="U25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="21:21">
       <c r="U26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="21:21">
       <c r="U27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="21:21">
       <c r="U28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="21:21">
       <c r="U29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="21:21">
       <c r="U30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="21:21">
       <c r="U31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="21:21">
       <c r="U32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="21:21">
       <c r="U33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="21:21">
       <c r="U34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="21:21">
       <c r="U35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="21:21">
       <c r="U36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="21:21">
       <c r="U37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="21:21">
       <c r="U38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="21:21">
       <c r="U39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="21:21">
       <c r="U40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="21:21">
       <c r="U41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="21:21">
       <c r="U42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="21:21">
       <c r="U43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="21:21">
       <c r="U44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="21:21">
       <c r="U45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="21:21">
       <c r="U46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="21:21">
       <c r="U47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="21:21">
       <c r="U48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="21:21">
       <c r="U49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="21:21">
       <c r="U50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="21:21">
       <c r="U51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="21:21">
       <c r="U52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="21:21">
       <c r="U53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="21:21">
       <c r="U54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="21:21">
       <c r="U55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="21:21">
       <c r="U56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="21:21">
       <c r="U57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="21:21">
       <c r="U58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="21:21">
       <c r="U59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="21:21">
       <c r="U60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="21:21">
       <c r="U61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="21:21">
       <c r="U62" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="21:21">
       <c r="U63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="21:21">
       <c r="U64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="21:21">
       <c r="U65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="21:21">
       <c r="U66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="21:21">
       <c r="U67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="21:21">
       <c r="U68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="21:21">
       <c r="U69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="21:21">
       <c r="U70" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="21:21">
       <c r="U71" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="21:21">
       <c r="U72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="21:21">
       <c r="U73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="21:21">
       <c r="U74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="21:21">
       <c r="U75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="21:21">
       <c r="U76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="21:21">
       <c r="U77" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="21:21">
       <c r="U78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="21:21">
       <c r="U79" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="21:21">
       <c r="U80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="21:21">
       <c r="U81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="21:21">
       <c r="U82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="21:21">
       <c r="U83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="21:21">
       <c r="U84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="21:21">
       <c r="U85" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="21:21">
       <c r="U86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="21:21">
       <c r="U87" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="21:21">
       <c r="U88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="21:21">
       <c r="U89" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="21:21">
       <c r="U90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="21:21">
       <c r="U91" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="21:21">
       <c r="U92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="21:21">
       <c r="U93" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="21:21">
       <c r="U94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="21:21">
       <c r="U95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="21:21">
       <c r="U96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="21:21">
       <c r="U97" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="21:21">
       <c r="U98" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="21:21">
       <c r="U99" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="21:21">
       <c r="U100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="21:21">
       <c r="U101" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="21:21">
       <c r="U102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="21:21">
       <c r="U103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="21:21">
       <c r="U104" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="21:21">
       <c r="U105" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="21:21">
       <c r="U106" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="21:21">
       <c r="U107" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="21:21">
       <c r="U108" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="21:21">
       <c r="U109" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="21:21">
       <c r="U110" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="21:21">
       <c r="U111" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="21:21">
       <c r="U112" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="21:21">
       <c r="U113" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="21:21">
       <c r="U114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="21:21">
       <c r="U115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="21:21">
       <c r="U116" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="21:21">
       <c r="U117" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="21:21">
       <c r="U118" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="21:21">
       <c r="U119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="21:21">
       <c r="U120" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="21:21">
       <c r="U121" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="21:21">
       <c r="U122" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="21:21">
       <c r="U123" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="21:21">
       <c r="U124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="21:21">
       <c r="U125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="21:21">
       <c r="U126" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="21:21">
       <c r="U127" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="21:21">
       <c r="U128" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="21:21">
       <c r="U129" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="21:21">
       <c r="U130" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="21:21">
       <c r="U131" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="21:21">
       <c r="U132" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="21:21">
       <c r="U133" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="21:21">
       <c r="U134" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="21:21">
       <c r="U135" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="21:21">
       <c r="U136" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="21:21">
       <c r="U137" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="21:21">
       <c r="U138" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="21:21">
       <c r="U139" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="21:21">
       <c r="U140" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="21:21">
       <c r="U141" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="21:21">
       <c r="U142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="21:21">
       <c r="U143" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="21:21">
       <c r="U144" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="21:21">
       <c r="U145" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="21:21">
       <c r="U146" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="21:21">
       <c r="U147" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="21:21">
       <c r="U148" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="21:21">
       <c r="U149" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="21:21">
       <c r="U150" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="21:21">
       <c r="U151" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="21:21">
       <c r="U152" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="21:21">
       <c r="U153" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="21:21">
       <c r="U154" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="21:21">
       <c r="U155" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="21:21">
       <c r="U156" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="21:21">
       <c r="U157" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="21:21">
       <c r="U158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="21:21">
       <c r="U159" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="21:21">
       <c r="U160" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="21:21">
       <c r="U161" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="21:21">
       <c r="U162" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="21:21">
       <c r="U163" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="21:21">
       <c r="U164" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="21:21">
       <c r="U165" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="21:21">
       <c r="U166" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="21:21">
       <c r="U167" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="21:21">
       <c r="U168" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="21:21">
       <c r="U169" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="21:21">
       <c r="U170" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="21:21">
       <c r="U171" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="21:21">
       <c r="U172" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="21:21">
       <c r="U173" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="21:21">
       <c r="U174" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="21:21">
       <c r="U175" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="21:21">
       <c r="U176" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="21:21">
       <c r="U177" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="21:21">
       <c r="U178" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="21:21">
       <c r="U179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="21:21">
       <c r="U180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="21:21">
       <c r="U181" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="21:21">
       <c r="U182" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="21:21">
       <c r="U183" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="21:21">
       <c r="U184" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="21:21">
       <c r="U185" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="21:21">
       <c r="U186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="21:21">
       <c r="U187" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="21:21">
       <c r="U188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="21:21">
       <c r="U189" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="21:21">
       <c r="U190" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="21:21">
       <c r="U191" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="21:21">
       <c r="U192" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="21:21">
       <c r="U193" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="21:21">
       <c r="U194" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="21:21">
       <c r="U195" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="21:21">
       <c r="U196" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="21:21">
       <c r="U197" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="21:21">
       <c r="U198" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="21:21">
       <c r="U199" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="21:21">
       <c r="U200" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="21:21">
       <c r="U201" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="21:21">
       <c r="U202" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="21:21">
       <c r="U203" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="21:21">
       <c r="U204" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="21:21">
       <c r="U205" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="21:21">
       <c r="U206" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="21:21">
       <c r="U207" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" spans="21:21">
       <c r="U208" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="21:21">
       <c r="U209" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="21:21">
       <c r="U210" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="211" spans="21:21">
       <c r="U211" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="21:21">
       <c r="U212" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" spans="21:21">
       <c r="U213" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" spans="21:21">
       <c r="U214" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="21:21">
       <c r="U215" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="21:21">
       <c r="U216" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="21:21">
       <c r="U217" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" spans="21:21">
       <c r="U218" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="21:21">
       <c r="U219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="21:21">
       <c r="U220" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="21:21">
       <c r="U221" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="21:21">
       <c r="U222" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="21:21">
       <c r="U223" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="21:21">
       <c r="U224" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" spans="21:21">
       <c r="U225" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="21:21">
       <c r="U226" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="21:21">
       <c r="U227" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="21:21">
       <c r="U228" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="21:21">
       <c r="U229" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="21:21">
       <c r="U230" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="21:21">
       <c r="U231" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" spans="21:21">
       <c r="U232" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="233" spans="21:21">
       <c r="U233" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="234" spans="21:21">
       <c r="U234" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="21:21">
       <c r="U235" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" spans="21:21">
       <c r="U236" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="21:21">
       <c r="U237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" spans="21:21">
       <c r="U238" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="239" spans="21:21">
       <c r="U239" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" spans="21:21">
       <c r="U240" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" spans="21:21">
       <c r="U241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="21:21">
       <c r="U242" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="21:21">
       <c r="U243" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="21:21">
       <c r="U244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="21:21">
       <c r="U245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="21:21">
       <c r="U246" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="21:21">
       <c r="U247" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="21:21">
       <c r="U248" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="21:21">
       <c r="U249" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="250" spans="21:21">
       <c r="U250" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="21:21">
       <c r="U251" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="21:21">
       <c r="U252" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="21:21">
       <c r="U253" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="21:21">
       <c r="U254" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="21:21">
       <c r="U255" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="21:21">
       <c r="U256" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="21:21">
       <c r="U257" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="258" spans="21:21">
       <c r="U258" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="21:21">
       <c r="U259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="21:21">
       <c r="U260" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="21:21">
       <c r="U261" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="21:21">
       <c r="U262" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263" spans="21:21">
       <c r="U263" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264" spans="21:21">
       <c r="U264" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="21:21">
       <c r="U265" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="21:21">
       <c r="U266" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="267" spans="21:21">
       <c r="U267" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="21:21">
       <c r="U268" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="21:21">
       <c r="U269" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="270" spans="21:21">
       <c r="U270" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="21:21">
       <c r="U271" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="272" spans="21:21">
       <c r="U272" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="21:21">
       <c r="U273" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="21:21">
       <c r="U274" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="21:21">
       <c r="U275" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276" spans="21:21">
       <c r="U276" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="21:21">
       <c r="U277" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="278" spans="21:21">
       <c r="U278" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="21:21">
       <c r="U279" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280" spans="21:21">
       <c r="U280" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="281" spans="21:21">
       <c r="U281" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282" spans="21:21">
       <c r="U282" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="21:21">
       <c r="U283" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="21:21">
       <c r="U284" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="21:21">
       <c r="U285" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="21:21">
       <c r="U286" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="287" spans="21:21">
       <c r="U287" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="288" spans="21:21">
       <c r="U288" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="289" spans="21:21">
       <c r="U289" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="608">
   <si>
     <t>alias</t>
   </si>
@@ -844,31 +844,31 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>size-fraction lower threshold</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
-  </si>
-  <si>
-    <t>size-fraction upper threshold</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
-  </si>
-  <si>
-    <t>target gene</t>
+    <t>sizefraction_lower_threshold</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: nm)</t>
+  </si>
+  <si>
+    <t>sizefraction_upper_threshold</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: nm)</t>
+  </si>
+  <si>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Mandatory) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Mandatory) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
@@ -886,7 +886,7 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -898,37 +898,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1159,9 +1159,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1180,6 +1177,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1381,6 +1381,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1390,9 +1393,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1501,6 +1501,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1576,6 +1579,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1597,6 +1603,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1642,6 +1651,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1654,6 +1666,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1663,9 +1678,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1690,6 +1702,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1750,12 +1765,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1813,7 +1828,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1825,13 +1840,13 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>Further Details</t>
+    <t>further_details</t>
   </si>
   <si>
     <t>(Optional) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Mandatory) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -1840,7 +1855,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3445,19 +3460,19 @@
         <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
@@ -3522,19 +3537,19 @@
         <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3567,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:U289"/>
+  <dimension ref="T1:U294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5009,6 +5024,31 @@
         <v>592</v>
       </c>
     </row>
+    <row r="290" spans="21:21">
+      <c r="U290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="21:21">
+      <c r="U291" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="292" spans="21:21">
+      <c r="U292" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="21:21">
+      <c r="U293" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="21:21">
+      <c r="U294" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
   <si>
     <t>alias</t>
   </si>
@@ -844,31 +844,31 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sizefraction_lower_threshold</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: nm)</t>
-  </si>
-  <si>
-    <t>sizefraction_upper_threshold</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: nm)</t>
-  </si>
-  <si>
-    <t>target_gene</t>
+    <t>size-fraction lower threshold</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
+    <t>size-fraction upper threshold</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Mandatory) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Mandatory) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
@@ -886,7 +886,7 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -898,37 +898,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1159,6 +1159,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1177,9 +1180,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1381,9 +1381,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1393,6 +1390,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1501,9 +1501,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1579,9 +1576,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1603,9 +1597,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1651,9 +1642,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1666,9 +1654,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1678,6 +1663,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1702,9 +1690,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1765,12 +1750,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1828,7 +1813,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1840,13 +1825,13 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>further_details</t>
+    <t>Further Details</t>
   </si>
   <si>
     <t>(Optional) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Mandatory) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -1855,7 +1840,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3460,19 +3445,19 @@
         <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="150" customHeight="1">
@@ -3537,19 +3522,19 @@
         <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3552,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:U294"/>
+  <dimension ref="T1:U289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5024,31 +5009,6 @@
         <v>592</v>
       </c>
     </row>
-    <row r="290" spans="21:21">
-      <c r="U290" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="291" spans="21:21">
-      <c r="U291" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="292" spans="21:21">
-      <c r="U292" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="293" spans="21:21">
-      <c r="U293" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="294" spans="21:21">
-      <c r="U294" t="s">
-        <v>597</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$V$1:$V$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="607">
   <si>
     <t>alias</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3374,7 +3386,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3383,7 +3395,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3442,13 +3454,13 @@
         <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>595</v>
+        <v>306</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>597</v>
@@ -3459,8 +3471,14 @@
       <c r="Y1" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="150" customHeight="1">
+      <c r="Z1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3519,13 +3537,13 @@
         <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>596</v>
+        <v>307</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>598</v>
@@ -3536,13 +3554,19 @@
       <c r="Y2" s="2" t="s">
         <v>602</v>
       </c>
+      <c r="Z2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
       <formula1>environmentalsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3552,1461 +3576,1461 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:U289"/>
+  <dimension ref="V1:W289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="20:21">
-      <c r="T1" t="s">
-        <v>300</v>
-      </c>
-      <c r="U1" t="s">
+    <row r="1" spans="22:23">
+      <c r="V1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="20:21">
-      <c r="T2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="W1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="22:23">
+      <c r="V2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="20:21">
-      <c r="U3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="20:21">
-      <c r="U4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="20:21">
-      <c r="U5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="20:21">
-      <c r="U6" t="s">
+      <c r="W2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="20:21">
-      <c r="U7" t="s">
+    <row r="3" spans="22:23">
+      <c r="W3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="20:21">
-      <c r="U8" t="s">
+    <row r="4" spans="22:23">
+      <c r="W4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="20:21">
-      <c r="U9" t="s">
+    <row r="5" spans="22:23">
+      <c r="W5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="20:21">
-      <c r="U10" t="s">
+    <row r="6" spans="22:23">
+      <c r="W6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="20:21">
-      <c r="U11" t="s">
+    <row r="7" spans="22:23">
+      <c r="W7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="20:21">
-      <c r="U12" t="s">
+    <row r="8" spans="22:23">
+      <c r="W8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="20:21">
-      <c r="U13" t="s">
+    <row r="9" spans="22:23">
+      <c r="W9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="20:21">
-      <c r="U14" t="s">
+    <row r="10" spans="22:23">
+      <c r="W10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="20:21">
-      <c r="U15" t="s">
+    <row r="11" spans="22:23">
+      <c r="W11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="20:21">
-      <c r="U16" t="s">
+    <row r="12" spans="22:23">
+      <c r="W12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="21:21">
-      <c r="U17" t="s">
+    <row r="13" spans="22:23">
+      <c r="W13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="21:21">
-      <c r="U18" t="s">
+    <row r="14" spans="22:23">
+      <c r="W14" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="21:21">
-      <c r="U19" t="s">
+    <row r="15" spans="22:23">
+      <c r="W15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="21:21">
-      <c r="U20" t="s">
+    <row r="16" spans="22:23">
+      <c r="W16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="21:21">
-      <c r="U21" t="s">
+    <row r="17" spans="23:23">
+      <c r="W17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="21:21">
-      <c r="U22" t="s">
+    <row r="18" spans="23:23">
+      <c r="W18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="21:21">
-      <c r="U23" t="s">
+    <row r="19" spans="23:23">
+      <c r="W19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="21:21">
-      <c r="U24" t="s">
+    <row r="20" spans="23:23">
+      <c r="W20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="21:21">
-      <c r="U25" t="s">
+    <row r="21" spans="23:23">
+      <c r="W21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="21:21">
-      <c r="U26" t="s">
+    <row r="22" spans="23:23">
+      <c r="W22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="21:21">
-      <c r="U27" t="s">
+    <row r="23" spans="23:23">
+      <c r="W23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="21:21">
-      <c r="U28" t="s">
+    <row r="24" spans="23:23">
+      <c r="W24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="21:21">
-      <c r="U29" t="s">
+    <row r="25" spans="23:23">
+      <c r="W25" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="21:21">
-      <c r="U30" t="s">
+    <row r="26" spans="23:23">
+      <c r="W26" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="21:21">
-      <c r="U31" t="s">
+    <row r="27" spans="23:23">
+      <c r="W27" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="21:21">
-      <c r="U32" t="s">
+    <row r="28" spans="23:23">
+      <c r="W28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="21:21">
-      <c r="U33" t="s">
+    <row r="29" spans="23:23">
+      <c r="W29" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="21:21">
-      <c r="U34" t="s">
+    <row r="30" spans="23:23">
+      <c r="W30" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="21:21">
-      <c r="U35" t="s">
+    <row r="31" spans="23:23">
+      <c r="W31" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="21:21">
-      <c r="U36" t="s">
+    <row r="32" spans="23:23">
+      <c r="W32" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="21:21">
-      <c r="U37" t="s">
+    <row r="33" spans="23:23">
+      <c r="W33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="21:21">
-      <c r="U38" t="s">
+    <row r="34" spans="23:23">
+      <c r="W34" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="21:21">
-      <c r="U39" t="s">
+    <row r="35" spans="23:23">
+      <c r="W35" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="21:21">
-      <c r="U40" t="s">
+    <row r="36" spans="23:23">
+      <c r="W36" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="21:21">
-      <c r="U41" t="s">
+    <row r="37" spans="23:23">
+      <c r="W37" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="21:21">
-      <c r="U42" t="s">
+    <row r="38" spans="23:23">
+      <c r="W38" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="21:21">
-      <c r="U43" t="s">
+    <row r="39" spans="23:23">
+      <c r="W39" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="21:21">
-      <c r="U44" t="s">
+    <row r="40" spans="23:23">
+      <c r="W40" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="21:21">
-      <c r="U45" t="s">
+    <row r="41" spans="23:23">
+      <c r="W41" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="21:21">
-      <c r="U46" t="s">
+    <row r="42" spans="23:23">
+      <c r="W42" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="21:21">
-      <c r="U47" t="s">
+    <row r="43" spans="23:23">
+      <c r="W43" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="21:21">
-      <c r="U48" t="s">
+    <row r="44" spans="23:23">
+      <c r="W44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="21:21">
-      <c r="U49" t="s">
+    <row r="45" spans="23:23">
+      <c r="W45" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="21:21">
-      <c r="U50" t="s">
+    <row r="46" spans="23:23">
+      <c r="W46" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="21:21">
-      <c r="U51" t="s">
+    <row r="47" spans="23:23">
+      <c r="W47" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="21:21">
-      <c r="U52" t="s">
+    <row r="48" spans="23:23">
+      <c r="W48" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="21:21">
-      <c r="U53" t="s">
+    <row r="49" spans="23:23">
+      <c r="W49" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="21:21">
-      <c r="U54" t="s">
+    <row r="50" spans="23:23">
+      <c r="W50" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="21:21">
-      <c r="U55" t="s">
+    <row r="51" spans="23:23">
+      <c r="W51" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="21:21">
-      <c r="U56" t="s">
+    <row r="52" spans="23:23">
+      <c r="W52" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="21:21">
-      <c r="U57" t="s">
+    <row r="53" spans="23:23">
+      <c r="W53" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="21:21">
-      <c r="U58" t="s">
+    <row r="54" spans="23:23">
+      <c r="W54" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="21:21">
-      <c r="U59" t="s">
+    <row r="55" spans="23:23">
+      <c r="W55" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="21:21">
-      <c r="U60" t="s">
+    <row r="56" spans="23:23">
+      <c r="W56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="21:21">
-      <c r="U61" t="s">
+    <row r="57" spans="23:23">
+      <c r="W57" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="21:21">
-      <c r="U62" t="s">
+    <row r="58" spans="23:23">
+      <c r="W58" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="21:21">
-      <c r="U63" t="s">
+    <row r="59" spans="23:23">
+      <c r="W59" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="21:21">
-      <c r="U64" t="s">
+    <row r="60" spans="23:23">
+      <c r="W60" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="21:21">
-      <c r="U65" t="s">
+    <row r="61" spans="23:23">
+      <c r="W61" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="21:21">
-      <c r="U66" t="s">
+    <row r="62" spans="23:23">
+      <c r="W62" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="21:21">
-      <c r="U67" t="s">
+    <row r="63" spans="23:23">
+      <c r="W63" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="21:21">
-      <c r="U68" t="s">
+    <row r="64" spans="23:23">
+      <c r="W64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="21:21">
-      <c r="U69" t="s">
+    <row r="65" spans="23:23">
+      <c r="W65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="21:21">
-      <c r="U70" t="s">
+    <row r="66" spans="23:23">
+      <c r="W66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="21:21">
-      <c r="U71" t="s">
+    <row r="67" spans="23:23">
+      <c r="W67" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="21:21">
-      <c r="U72" t="s">
+    <row r="68" spans="23:23">
+      <c r="W68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="73" spans="21:21">
-      <c r="U73" t="s">
+    <row r="69" spans="23:23">
+      <c r="W69" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="21:21">
-      <c r="U74" t="s">
+    <row r="70" spans="23:23">
+      <c r="W70" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="21:21">
-      <c r="U75" t="s">
+    <row r="71" spans="23:23">
+      <c r="W71" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="76" spans="21:21">
-      <c r="U76" t="s">
+    <row r="72" spans="23:23">
+      <c r="W72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="21:21">
-      <c r="U77" t="s">
+    <row r="73" spans="23:23">
+      <c r="W73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="21:21">
-      <c r="U78" t="s">
+    <row r="74" spans="23:23">
+      <c r="W74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="21:21">
-      <c r="U79" t="s">
+    <row r="75" spans="23:23">
+      <c r="W75" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="21:21">
-      <c r="U80" t="s">
+    <row r="76" spans="23:23">
+      <c r="W76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="21:21">
-      <c r="U81" t="s">
+    <row r="77" spans="23:23">
+      <c r="W77" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="21:21">
-      <c r="U82" t="s">
+    <row r="78" spans="23:23">
+      <c r="W78" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="83" spans="21:21">
-      <c r="U83" t="s">
+    <row r="79" spans="23:23">
+      <c r="W79" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="84" spans="21:21">
-      <c r="U84" t="s">
+    <row r="80" spans="23:23">
+      <c r="W80" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="21:21">
-      <c r="U85" t="s">
+    <row r="81" spans="23:23">
+      <c r="W81" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="86" spans="21:21">
-      <c r="U86" t="s">
+    <row r="82" spans="23:23">
+      <c r="W82" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="21:21">
-      <c r="U87" t="s">
+    <row r="83" spans="23:23">
+      <c r="W83" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="88" spans="21:21">
-      <c r="U88" t="s">
+    <row r="84" spans="23:23">
+      <c r="W84" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="89" spans="21:21">
-      <c r="U89" t="s">
+    <row r="85" spans="23:23">
+      <c r="W85" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="90" spans="21:21">
-      <c r="U90" t="s">
+    <row r="86" spans="23:23">
+      <c r="W86" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="21:21">
-      <c r="U91" t="s">
+    <row r="87" spans="23:23">
+      <c r="W87" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="21:21">
-      <c r="U92" t="s">
+    <row r="88" spans="23:23">
+      <c r="W88" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="93" spans="21:21">
-      <c r="U93" t="s">
+    <row r="89" spans="23:23">
+      <c r="W89" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="94" spans="21:21">
-      <c r="U94" t="s">
+    <row r="90" spans="23:23">
+      <c r="W90" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="95" spans="21:21">
-      <c r="U95" t="s">
+    <row r="91" spans="23:23">
+      <c r="W91" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="21:21">
-      <c r="U96" t="s">
+    <row r="92" spans="23:23">
+      <c r="W92" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="97" spans="21:21">
-      <c r="U97" t="s">
+    <row r="93" spans="23:23">
+      <c r="W93" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="21:21">
-      <c r="U98" t="s">
+    <row r="94" spans="23:23">
+      <c r="W94" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="99" spans="21:21">
-      <c r="U99" t="s">
+    <row r="95" spans="23:23">
+      <c r="W95" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="100" spans="21:21">
-      <c r="U100" t="s">
+    <row r="96" spans="23:23">
+      <c r="W96" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="101" spans="21:21">
-      <c r="U101" t="s">
+    <row r="97" spans="23:23">
+      <c r="W97" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="21:21">
-      <c r="U102" t="s">
+    <row r="98" spans="23:23">
+      <c r="W98" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="21:21">
-      <c r="U103" t="s">
+    <row r="99" spans="23:23">
+      <c r="W99" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="21:21">
-      <c r="U104" t="s">
+    <row r="100" spans="23:23">
+      <c r="W100" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="21:21">
-      <c r="U105" t="s">
+    <row r="101" spans="23:23">
+      <c r="W101" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="106" spans="21:21">
-      <c r="U106" t="s">
+    <row r="102" spans="23:23">
+      <c r="W102" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="107" spans="21:21">
-      <c r="U107" t="s">
+    <row r="103" spans="23:23">
+      <c r="W103" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="21:21">
-      <c r="U108" t="s">
+    <row r="104" spans="23:23">
+      <c r="W104" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="21:21">
-      <c r="U109" t="s">
+    <row r="105" spans="23:23">
+      <c r="W105" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="21:21">
-      <c r="U110" t="s">
+    <row r="106" spans="23:23">
+      <c r="W106" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="111" spans="21:21">
-      <c r="U111" t="s">
+    <row r="107" spans="23:23">
+      <c r="W107" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="21:21">
-      <c r="U112" t="s">
+    <row r="108" spans="23:23">
+      <c r="W108" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="21:21">
-      <c r="U113" t="s">
+    <row r="109" spans="23:23">
+      <c r="W109" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="21:21">
-      <c r="U114" t="s">
+    <row r="110" spans="23:23">
+      <c r="W110" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="115" spans="21:21">
-      <c r="U115" t="s">
+    <row r="111" spans="23:23">
+      <c r="W111" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="116" spans="21:21">
-      <c r="U116" t="s">
+    <row r="112" spans="23:23">
+      <c r="W112" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="117" spans="21:21">
-      <c r="U117" t="s">
+    <row r="113" spans="23:23">
+      <c r="W113" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="118" spans="21:21">
-      <c r="U118" t="s">
+    <row r="114" spans="23:23">
+      <c r="W114" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="21:21">
-      <c r="U119" t="s">
+    <row r="115" spans="23:23">
+      <c r="W115" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="120" spans="21:21">
-      <c r="U120" t="s">
+    <row r="116" spans="23:23">
+      <c r="W116" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="121" spans="21:21">
-      <c r="U121" t="s">
+    <row r="117" spans="23:23">
+      <c r="W117" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="21:21">
-      <c r="U122" t="s">
+    <row r="118" spans="23:23">
+      <c r="W118" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="123" spans="21:21">
-      <c r="U123" t="s">
+    <row r="119" spans="23:23">
+      <c r="W119" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="124" spans="21:21">
-      <c r="U124" t="s">
+    <row r="120" spans="23:23">
+      <c r="W120" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="125" spans="21:21">
-      <c r="U125" t="s">
+    <row r="121" spans="23:23">
+      <c r="W121" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="21:21">
-      <c r="U126" t="s">
+    <row r="122" spans="23:23">
+      <c r="W122" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="127" spans="21:21">
-      <c r="U127" t="s">
+    <row r="123" spans="23:23">
+      <c r="W123" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="128" spans="21:21">
-      <c r="U128" t="s">
+    <row r="124" spans="23:23">
+      <c r="W124" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="129" spans="21:21">
-      <c r="U129" t="s">
+    <row r="125" spans="23:23">
+      <c r="W125" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="130" spans="21:21">
-      <c r="U130" t="s">
+    <row r="126" spans="23:23">
+      <c r="W126" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="131" spans="21:21">
-      <c r="U131" t="s">
+    <row r="127" spans="23:23">
+      <c r="W127" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="132" spans="21:21">
-      <c r="U132" t="s">
+    <row r="128" spans="23:23">
+      <c r="W128" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="133" spans="21:21">
-      <c r="U133" t="s">
+    <row r="129" spans="23:23">
+      <c r="W129" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="134" spans="21:21">
-      <c r="U134" t="s">
+    <row r="130" spans="23:23">
+      <c r="W130" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="21:21">
-      <c r="U135" t="s">
+    <row r="131" spans="23:23">
+      <c r="W131" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="136" spans="21:21">
-      <c r="U136" t="s">
+    <row r="132" spans="23:23">
+      <c r="W132" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="21:21">
-      <c r="U137" t="s">
+    <row r="133" spans="23:23">
+      <c r="W133" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="138" spans="21:21">
-      <c r="U138" t="s">
+    <row r="134" spans="23:23">
+      <c r="W134" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="139" spans="21:21">
-      <c r="U139" t="s">
+    <row r="135" spans="23:23">
+      <c r="W135" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="140" spans="21:21">
-      <c r="U140" t="s">
+    <row r="136" spans="23:23">
+      <c r="W136" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="141" spans="21:21">
-      <c r="U141" t="s">
+    <row r="137" spans="23:23">
+      <c r="W137" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="142" spans="21:21">
-      <c r="U142" t="s">
+    <row r="138" spans="23:23">
+      <c r="W138" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="143" spans="21:21">
-      <c r="U143" t="s">
+    <row r="139" spans="23:23">
+      <c r="W139" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="21:21">
-      <c r="U144" t="s">
+    <row r="140" spans="23:23">
+      <c r="W140" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="21:21">
-      <c r="U145" t="s">
+    <row r="141" spans="23:23">
+      <c r="W141" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="146" spans="21:21">
-      <c r="U146" t="s">
+    <row r="142" spans="23:23">
+      <c r="W142" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="147" spans="21:21">
-      <c r="U147" t="s">
+    <row r="143" spans="23:23">
+      <c r="W143" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="148" spans="21:21">
-      <c r="U148" t="s">
+    <row r="144" spans="23:23">
+      <c r="W144" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="149" spans="21:21">
-      <c r="U149" t="s">
+    <row r="145" spans="23:23">
+      <c r="W145" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="150" spans="21:21">
-      <c r="U150" t="s">
+    <row r="146" spans="23:23">
+      <c r="W146" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="151" spans="21:21">
-      <c r="U151" t="s">
+    <row r="147" spans="23:23">
+      <c r="W147" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="21:21">
-      <c r="U152" t="s">
+    <row r="148" spans="23:23">
+      <c r="W148" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="153" spans="21:21">
-      <c r="U153" t="s">
+    <row r="149" spans="23:23">
+      <c r="W149" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="154" spans="21:21">
-      <c r="U154" t="s">
+    <row r="150" spans="23:23">
+      <c r="W150" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="155" spans="21:21">
-      <c r="U155" t="s">
+    <row r="151" spans="23:23">
+      <c r="W151" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="156" spans="21:21">
-      <c r="U156" t="s">
+    <row r="152" spans="23:23">
+      <c r="W152" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="157" spans="21:21">
-      <c r="U157" t="s">
+    <row r="153" spans="23:23">
+      <c r="W153" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="158" spans="21:21">
-      <c r="U158" t="s">
+    <row r="154" spans="23:23">
+      <c r="W154" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="159" spans="21:21">
-      <c r="U159" t="s">
+    <row r="155" spans="23:23">
+      <c r="W155" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="160" spans="21:21">
-      <c r="U160" t="s">
+    <row r="156" spans="23:23">
+      <c r="W156" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="161" spans="21:21">
-      <c r="U161" t="s">
+    <row r="157" spans="23:23">
+      <c r="W157" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="162" spans="21:21">
-      <c r="U162" t="s">
+    <row r="158" spans="23:23">
+      <c r="W158" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="163" spans="21:21">
-      <c r="U163" t="s">
+    <row r="159" spans="23:23">
+      <c r="W159" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="164" spans="21:21">
-      <c r="U164" t="s">
+    <row r="160" spans="23:23">
+      <c r="W160" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="165" spans="21:21">
-      <c r="U165" t="s">
+    <row r="161" spans="23:23">
+      <c r="W161" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="21:21">
-      <c r="U166" t="s">
+    <row r="162" spans="23:23">
+      <c r="W162" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="21:21">
-      <c r="U167" t="s">
+    <row r="163" spans="23:23">
+      <c r="W163" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="168" spans="21:21">
-      <c r="U168" t="s">
+    <row r="164" spans="23:23">
+      <c r="W164" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="21:21">
-      <c r="U169" t="s">
+    <row r="165" spans="23:23">
+      <c r="W165" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="170" spans="21:21">
-      <c r="U170" t="s">
+    <row r="166" spans="23:23">
+      <c r="W166" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="171" spans="21:21">
-      <c r="U171" t="s">
+    <row r="167" spans="23:23">
+      <c r="W167" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="172" spans="21:21">
-      <c r="U172" t="s">
+    <row r="168" spans="23:23">
+      <c r="W168" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="21:21">
-      <c r="U173" t="s">
+    <row r="169" spans="23:23">
+      <c r="W169" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="174" spans="21:21">
-      <c r="U174" t="s">
+    <row r="170" spans="23:23">
+      <c r="W170" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="175" spans="21:21">
-      <c r="U175" t="s">
+    <row r="171" spans="23:23">
+      <c r="W171" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="176" spans="21:21">
-      <c r="U176" t="s">
+    <row r="172" spans="23:23">
+      <c r="W172" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="21:21">
-      <c r="U177" t="s">
+    <row r="173" spans="23:23">
+      <c r="W173" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="178" spans="21:21">
-      <c r="U178" t="s">
+    <row r="174" spans="23:23">
+      <c r="W174" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="179" spans="21:21">
-      <c r="U179" t="s">
+    <row r="175" spans="23:23">
+      <c r="W175" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="180" spans="21:21">
-      <c r="U180" t="s">
+    <row r="176" spans="23:23">
+      <c r="W176" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="21:21">
-      <c r="U181" t="s">
+    <row r="177" spans="23:23">
+      <c r="W177" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="182" spans="21:21">
-      <c r="U182" t="s">
+    <row r="178" spans="23:23">
+      <c r="W178" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="21:21">
-      <c r="U183" t="s">
+    <row r="179" spans="23:23">
+      <c r="W179" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="184" spans="21:21">
-      <c r="U184" t="s">
+    <row r="180" spans="23:23">
+      <c r="W180" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="185" spans="21:21">
-      <c r="U185" t="s">
+    <row r="181" spans="23:23">
+      <c r="W181" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="186" spans="21:21">
-      <c r="U186" t="s">
+    <row r="182" spans="23:23">
+      <c r="W182" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="187" spans="21:21">
-      <c r="U187" t="s">
+    <row r="183" spans="23:23">
+      <c r="W183" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="188" spans="21:21">
-      <c r="U188" t="s">
+    <row r="184" spans="23:23">
+      <c r="W184" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="21:21">
-      <c r="U189" t="s">
+    <row r="185" spans="23:23">
+      <c r="W185" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="21:21">
-      <c r="U190" t="s">
+    <row r="186" spans="23:23">
+      <c r="W186" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="191" spans="21:21">
-      <c r="U191" t="s">
+    <row r="187" spans="23:23">
+      <c r="W187" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="192" spans="21:21">
-      <c r="U192" t="s">
+    <row r="188" spans="23:23">
+      <c r="W188" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="193" spans="21:21">
-      <c r="U193" t="s">
+    <row r="189" spans="23:23">
+      <c r="W189" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="194" spans="21:21">
-      <c r="U194" t="s">
+    <row r="190" spans="23:23">
+      <c r="W190" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="21:21">
-      <c r="U195" t="s">
+    <row r="191" spans="23:23">
+      <c r="W191" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="196" spans="21:21">
-      <c r="U196" t="s">
+    <row r="192" spans="23:23">
+      <c r="W192" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="197" spans="21:21">
-      <c r="U197" t="s">
+    <row r="193" spans="23:23">
+      <c r="W193" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="198" spans="21:21">
-      <c r="U198" t="s">
+    <row r="194" spans="23:23">
+      <c r="W194" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="199" spans="21:21">
-      <c r="U199" t="s">
+    <row r="195" spans="23:23">
+      <c r="W195" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="200" spans="21:21">
-      <c r="U200" t="s">
+    <row r="196" spans="23:23">
+      <c r="W196" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="201" spans="21:21">
-      <c r="U201" t="s">
+    <row r="197" spans="23:23">
+      <c r="W197" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="202" spans="21:21">
-      <c r="U202" t="s">
+    <row r="198" spans="23:23">
+      <c r="W198" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="203" spans="21:21">
-      <c r="U203" t="s">
+    <row r="199" spans="23:23">
+      <c r="W199" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="204" spans="21:21">
-      <c r="U204" t="s">
+    <row r="200" spans="23:23">
+      <c r="W200" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="205" spans="21:21">
-      <c r="U205" t="s">
+    <row r="201" spans="23:23">
+      <c r="W201" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="206" spans="21:21">
-      <c r="U206" t="s">
+    <row r="202" spans="23:23">
+      <c r="W202" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="207" spans="21:21">
-      <c r="U207" t="s">
+    <row r="203" spans="23:23">
+      <c r="W203" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="208" spans="21:21">
-      <c r="U208" t="s">
+    <row r="204" spans="23:23">
+      <c r="W204" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="209" spans="21:21">
-      <c r="U209" t="s">
+    <row r="205" spans="23:23">
+      <c r="W205" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="210" spans="21:21">
-      <c r="U210" t="s">
+    <row r="206" spans="23:23">
+      <c r="W206" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="211" spans="21:21">
-      <c r="U211" t="s">
+    <row r="207" spans="23:23">
+      <c r="W207" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="212" spans="21:21">
-      <c r="U212" t="s">
+    <row r="208" spans="23:23">
+      <c r="W208" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="213" spans="21:21">
-      <c r="U213" t="s">
+    <row r="209" spans="23:23">
+      <c r="W209" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="214" spans="21:21">
-      <c r="U214" t="s">
+    <row r="210" spans="23:23">
+      <c r="W210" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="215" spans="21:21">
-      <c r="U215" t="s">
+    <row r="211" spans="23:23">
+      <c r="W211" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="21:21">
-      <c r="U216" t="s">
+    <row r="212" spans="23:23">
+      <c r="W212" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="217" spans="21:21">
-      <c r="U217" t="s">
+    <row r="213" spans="23:23">
+      <c r="W213" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="218" spans="21:21">
-      <c r="U218" t="s">
+    <row r="214" spans="23:23">
+      <c r="W214" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="219" spans="21:21">
-      <c r="U219" t="s">
+    <row r="215" spans="23:23">
+      <c r="W215" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="220" spans="21:21">
-      <c r="U220" t="s">
+    <row r="216" spans="23:23">
+      <c r="W216" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="221" spans="21:21">
-      <c r="U221" t="s">
+    <row r="217" spans="23:23">
+      <c r="W217" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="222" spans="21:21">
-      <c r="U222" t="s">
+    <row r="218" spans="23:23">
+      <c r="W218" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="223" spans="21:21">
-      <c r="U223" t="s">
+    <row r="219" spans="23:23">
+      <c r="W219" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="224" spans="21:21">
-      <c r="U224" t="s">
+    <row r="220" spans="23:23">
+      <c r="W220" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="225" spans="21:21">
-      <c r="U225" t="s">
+    <row r="221" spans="23:23">
+      <c r="W221" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="226" spans="21:21">
-      <c r="U226" t="s">
+    <row r="222" spans="23:23">
+      <c r="W222" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="227" spans="21:21">
-      <c r="U227" t="s">
+    <row r="223" spans="23:23">
+      <c r="W223" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="228" spans="21:21">
-      <c r="U228" t="s">
+    <row r="224" spans="23:23">
+      <c r="W224" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="229" spans="21:21">
-      <c r="U229" t="s">
+    <row r="225" spans="23:23">
+      <c r="W225" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="230" spans="21:21">
-      <c r="U230" t="s">
+    <row r="226" spans="23:23">
+      <c r="W226" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="231" spans="21:21">
-      <c r="U231" t="s">
+    <row r="227" spans="23:23">
+      <c r="W227" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="232" spans="21:21">
-      <c r="U232" t="s">
+    <row r="228" spans="23:23">
+      <c r="W228" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="233" spans="21:21">
-      <c r="U233" t="s">
+    <row r="229" spans="23:23">
+      <c r="W229" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="234" spans="21:21">
-      <c r="U234" t="s">
+    <row r="230" spans="23:23">
+      <c r="W230" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="235" spans="21:21">
-      <c r="U235" t="s">
+    <row r="231" spans="23:23">
+      <c r="W231" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="236" spans="21:21">
-      <c r="U236" t="s">
+    <row r="232" spans="23:23">
+      <c r="W232" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="237" spans="21:21">
-      <c r="U237" t="s">
+    <row r="233" spans="23:23">
+      <c r="W233" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="238" spans="21:21">
-      <c r="U238" t="s">
+    <row r="234" spans="23:23">
+      <c r="W234" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="239" spans="21:21">
-      <c r="U239" t="s">
+    <row r="235" spans="23:23">
+      <c r="W235" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="240" spans="21:21">
-      <c r="U240" t="s">
+    <row r="236" spans="23:23">
+      <c r="W236" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="241" spans="21:21">
-      <c r="U241" t="s">
+    <row r="237" spans="23:23">
+      <c r="W237" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="242" spans="21:21">
-      <c r="U242" t="s">
+    <row r="238" spans="23:23">
+      <c r="W238" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="243" spans="21:21">
-      <c r="U243" t="s">
+    <row r="239" spans="23:23">
+      <c r="W239" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="244" spans="21:21">
-      <c r="U244" t="s">
+    <row r="240" spans="23:23">
+      <c r="W240" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="245" spans="21:21">
-      <c r="U245" t="s">
+    <row r="241" spans="23:23">
+      <c r="W241" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="246" spans="21:21">
-      <c r="U246" t="s">
+    <row r="242" spans="23:23">
+      <c r="W242" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="247" spans="21:21">
-      <c r="U247" t="s">
+    <row r="243" spans="23:23">
+      <c r="W243" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="248" spans="21:21">
-      <c r="U248" t="s">
+    <row r="244" spans="23:23">
+      <c r="W244" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="249" spans="21:21">
-      <c r="U249" t="s">
+    <row r="245" spans="23:23">
+      <c r="W245" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="250" spans="21:21">
-      <c r="U250" t="s">
+    <row r="246" spans="23:23">
+      <c r="W246" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="251" spans="21:21">
-      <c r="U251" t="s">
+    <row r="247" spans="23:23">
+      <c r="W247" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="252" spans="21:21">
-      <c r="U252" t="s">
+    <row r="248" spans="23:23">
+      <c r="W248" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="253" spans="21:21">
-      <c r="U253" t="s">
+    <row r="249" spans="23:23">
+      <c r="W249" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="254" spans="21:21">
-      <c r="U254" t="s">
+    <row r="250" spans="23:23">
+      <c r="W250" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="255" spans="21:21">
-      <c r="U255" t="s">
+    <row r="251" spans="23:23">
+      <c r="W251" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="21:21">
-      <c r="U256" t="s">
+    <row r="252" spans="23:23">
+      <c r="W252" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="257" spans="21:21">
-      <c r="U257" t="s">
+    <row r="253" spans="23:23">
+      <c r="W253" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="258" spans="21:21">
-      <c r="U258" t="s">
+    <row r="254" spans="23:23">
+      <c r="W254" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="259" spans="21:21">
-      <c r="U259" t="s">
+    <row r="255" spans="23:23">
+      <c r="W255" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="260" spans="21:21">
-      <c r="U260" t="s">
+    <row r="256" spans="23:23">
+      <c r="W256" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="261" spans="21:21">
-      <c r="U261" t="s">
+    <row r="257" spans="23:23">
+      <c r="W257" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="262" spans="21:21">
-      <c r="U262" t="s">
+    <row r="258" spans="23:23">
+      <c r="W258" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="263" spans="21:21">
-      <c r="U263" t="s">
+    <row r="259" spans="23:23">
+      <c r="W259" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="264" spans="21:21">
-      <c r="U264" t="s">
+    <row r="260" spans="23:23">
+      <c r="W260" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="265" spans="21:21">
-      <c r="U265" t="s">
+    <row r="261" spans="23:23">
+      <c r="W261" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="266" spans="21:21">
-      <c r="U266" t="s">
+    <row r="262" spans="23:23">
+      <c r="W262" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="267" spans="21:21">
-      <c r="U267" t="s">
+    <row r="263" spans="23:23">
+      <c r="W263" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="268" spans="21:21">
-      <c r="U268" t="s">
+    <row r="264" spans="23:23">
+      <c r="W264" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="269" spans="21:21">
-      <c r="U269" t="s">
+    <row r="265" spans="23:23">
+      <c r="W265" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="270" spans="21:21">
-      <c r="U270" t="s">
+    <row r="266" spans="23:23">
+      <c r="W266" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="271" spans="21:21">
-      <c r="U271" t="s">
+    <row r="267" spans="23:23">
+      <c r="W267" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="272" spans="21:21">
-      <c r="U272" t="s">
+    <row r="268" spans="23:23">
+      <c r="W268" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="273" spans="21:21">
-      <c r="U273" t="s">
+    <row r="269" spans="23:23">
+      <c r="W269" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="274" spans="21:21">
-      <c r="U274" t="s">
+    <row r="270" spans="23:23">
+      <c r="W270" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="275" spans="21:21">
-      <c r="U275" t="s">
+    <row r="271" spans="23:23">
+      <c r="W271" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="276" spans="21:21">
-      <c r="U276" t="s">
+    <row r="272" spans="23:23">
+      <c r="W272" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="277" spans="21:21">
-      <c r="U277" t="s">
+    <row r="273" spans="23:23">
+      <c r="W273" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="278" spans="21:21">
-      <c r="U278" t="s">
+    <row r="274" spans="23:23">
+      <c r="W274" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="279" spans="21:21">
-      <c r="U279" t="s">
+    <row r="275" spans="23:23">
+      <c r="W275" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="280" spans="21:21">
-      <c r="U280" t="s">
+    <row r="276" spans="23:23">
+      <c r="W276" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="281" spans="21:21">
-      <c r="U281" t="s">
+    <row r="277" spans="23:23">
+      <c r="W277" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="282" spans="21:21">
-      <c r="U282" t="s">
+    <row r="278" spans="23:23">
+      <c r="W278" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="283" spans="21:21">
-      <c r="U283" t="s">
+    <row r="279" spans="23:23">
+      <c r="W279" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="284" spans="21:21">
-      <c r="U284" t="s">
+    <row r="280" spans="23:23">
+      <c r="W280" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="285" spans="21:21">
-      <c r="U285" t="s">
+    <row r="281" spans="23:23">
+      <c r="W281" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="286" spans="21:21">
-      <c r="U286" t="s">
+    <row r="282" spans="23:23">
+      <c r="W282" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="287" spans="21:21">
-      <c r="U287" t="s">
+    <row r="283" spans="23:23">
+      <c r="W283" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="288" spans="21:21">
-      <c r="U288" t="s">
+    <row r="284" spans="23:23">
+      <c r="W284" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="289" spans="21:21">
-      <c r="U289" t="s">
+    <row r="285" spans="23:23">
+      <c r="W285" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="286" spans="23:23">
+      <c r="W286" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="287" spans="23:23">
+      <c r="W287" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="288" spans="23:23">
+      <c r="W288" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="289" spans="23:23">
+      <c r="W289" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$V$1:$V$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="612">
   <si>
     <t>alias</t>
   </si>
@@ -865,13 +865,13 @@
     <t>size-fraction lower threshold</t>
   </si>
   <si>
-    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: mm, µm, nm)</t>
   </si>
   <si>
     <t>size-fraction upper threshold</t>
   </si>
   <si>
-    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: mm, µm, nm)</t>
   </si>
   <si>
     <t>target gene</t>
@@ -1171,9 +1171,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1192,6 +1189,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1393,6 +1393,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1402,9 +1405,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1513,6 +1513,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1588,6 +1591,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1609,6 +1615,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1654,6 +1663,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1666,6 +1678,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1675,9 +1690,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1702,6 +1714,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1762,12 +1777,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1852,7 +1867,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3463,19 +3478,19 @@
         <v>306</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
@@ -3546,19 +3561,19 @@
         <v>307</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3591,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="V1:W289"/>
+  <dimension ref="V1:W294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5033,6 +5048,31 @@
         <v>596</v>
       </c>
     </row>
+    <row r="290" spans="23:23">
+      <c r="W290" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="23:23">
+      <c r="W291" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="23:23">
+      <c r="W292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="23:23">
+      <c r="W293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="23:23">
+      <c r="W294" t="s">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000040/metadata_template_ERC000040.xlsx
+++ b/templates/ERC000040/metadata_template_ERC000040.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$V$1:$V$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="612">
   <si>
     <t>alias</t>
   </si>
@@ -865,13 +865,13 @@
     <t>size-fraction lower threshold</t>
   </si>
   <si>
-    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Optional) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: nm)</t>
   </si>
   <si>
     <t>size-fraction upper threshold</t>
   </si>
   <si>
-    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Optional) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: nm)</t>
   </si>
   <si>
     <t>target gene</t>
@@ -1171,9 +1171,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1192,6 +1189,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1393,6 +1393,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1402,9 +1405,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1513,6 +1513,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1588,6 +1591,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1609,6 +1615,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1654,6 +1663,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1666,6 +1678,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1675,9 +1690,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1702,6 +1714,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1762,12 +1777,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1852,7 +1867,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3463,19 +3478,19 @@
         <v>306</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
@@ -3546,19 +3561,19 @@
         <v>307</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3591,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="V1:W289"/>
+  <dimension ref="V1:W294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5033,6 +5048,31 @@
         <v>596</v>
       </c>
     </row>
+    <row r="290" spans="23:23">
+      <c r="W290" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="23:23">
+      <c r="W291" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="23:23">
+      <c r="W292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="23:23">
+      <c r="W293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="23:23">
+      <c r="W294" t="s">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
